--- a/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_18_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1884530.324789041</v>
+        <v>1883860.54068628</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7432062.370402243</v>
+        <v>7432062.370402234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.6462854413738</v>
+        <v>286.6462854413739</v>
       </c>
       <c r="C11" t="n">
-        <v>279.4002336691896</v>
+        <v>279.4002336691897</v>
       </c>
       <c r="D11" t="n">
-        <v>271.7432046825899</v>
+        <v>271.74320468259</v>
       </c>
       <c r="E11" t="n">
-        <v>288.7141768217118</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>302.8819812724129</v>
+        <v>302.881981272413</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5661651106948</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>91.79792516143056</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.151780517794879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.84361406224321</v>
+        <v>40.84361406224329</v>
       </c>
       <c r="T11" t="n">
-        <v>108.701686082616</v>
+        <v>108.7016860826161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>143.3019734541766</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>228.8422283906078</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.4455318684865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>275.7145662033648</v>
       </c>
       <c r="Y11" t="n">
-        <v>282.6822891756958</v>
+        <v>53.30447583510357</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>84.20314315898825</v>
       </c>
       <c r="I12" t="n">
-        <v>37.44528982701222</v>
+        <v>37.44528982701494</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.033390506631226</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S12" t="n">
         <v>127.4052342761665</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.51242569147921</v>
+        <v>73.51242569147929</v>
       </c>
       <c r="C13" t="n">
-        <v>58.65955394176162</v>
+        <v>58.6595539417617</v>
       </c>
       <c r="D13" t="n">
-        <v>44.23326915360134</v>
+        <v>44.23326915360143</v>
       </c>
       <c r="E13" t="n">
-        <v>44.15971120648045</v>
+        <v>44.15971120648054</v>
       </c>
       <c r="F13" t="n">
-        <v>45.90916262624772</v>
+        <v>45.90916262624781</v>
       </c>
       <c r="G13" t="n">
-        <v>56.44923945789508</v>
+        <v>56.44923945789516</v>
       </c>
       <c r="H13" t="n">
-        <v>41.60181319931742</v>
+        <v>41.6018131993175</v>
       </c>
       <c r="I13" t="n">
-        <v>13.53686204016813</v>
+        <v>13.53686204016821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2843543442608993</v>
+        <v>0.2843543442609757</v>
       </c>
       <c r="S13" t="n">
-        <v>86.0863646122058</v>
+        <v>86.08636461220587</v>
       </c>
       <c r="T13" t="n">
-        <v>122.3272783855387</v>
+        <v>122.3272783855388</v>
       </c>
       <c r="U13" t="n">
-        <v>172.7256858772047</v>
+        <v>172.7256858772049</v>
       </c>
       <c r="V13" t="n">
-        <v>153.4760389144749</v>
+        <v>153.4760389144751</v>
       </c>
       <c r="W13" t="n">
-        <v>170.6535852352251</v>
+        <v>170.6535852352252</v>
       </c>
       <c r="X13" t="n">
-        <v>121.8960061819377</v>
+        <v>121.8960061819378</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.037427758614</v>
+        <v>111.0374277586141</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.6462854413738</v>
+        <v>286.6462854413739</v>
       </c>
       <c r="C14" t="n">
-        <v>279.4002336691896</v>
+        <v>279.4002336691897</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>288.7141768217118</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>302.8819812724129</v>
+        <v>302.881981272413</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5661651106948</v>
+        <v>298.566165110695</v>
       </c>
       <c r="H14" t="n">
-        <v>193.3764692054763</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.151780517794812</v>
+        <v>3.151780517794876</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.84361406224321</v>
+        <v>40.84361406224328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.7016860826161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.3019734541766</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>228.8422283906078</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.4455318684865</v>
       </c>
       <c r="X14" t="n">
-        <v>275.7145662033647</v>
+        <v>19.51379243466549</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.6822891756958</v>
+        <v>282.6822891756959</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.033390506631226</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S15" t="n">
         <v>127.4052342761665</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.51242569147921</v>
+        <v>73.51242569147929</v>
       </c>
       <c r="C16" t="n">
-        <v>58.65955394176162</v>
+        <v>58.6595539417617</v>
       </c>
       <c r="D16" t="n">
-        <v>44.23326915360134</v>
+        <v>44.23326915360143</v>
       </c>
       <c r="E16" t="n">
-        <v>44.15971120648045</v>
+        <v>44.15971120648054</v>
       </c>
       <c r="F16" t="n">
-        <v>45.90916262624772</v>
+        <v>45.90916262624781</v>
       </c>
       <c r="G16" t="n">
-        <v>56.44923945789508</v>
+        <v>56.44923945789516</v>
       </c>
       <c r="H16" t="n">
-        <v>41.60181319931741</v>
+        <v>41.6018131993175</v>
       </c>
       <c r="I16" t="n">
-        <v>13.53686204016813</v>
+        <v>13.53686204016821</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2843543442608993</v>
+        <v>0.2843543442609757</v>
       </c>
       <c r="S16" t="n">
-        <v>86.0863646122058</v>
+        <v>86.08636461220587</v>
       </c>
       <c r="T16" t="n">
-        <v>122.3272783855387</v>
+        <v>122.3272783855388</v>
       </c>
       <c r="U16" t="n">
-        <v>172.7256858772047</v>
+        <v>172.7256858772049</v>
       </c>
       <c r="V16" t="n">
-        <v>153.4760389144749</v>
+        <v>153.4760389144751</v>
       </c>
       <c r="W16" t="n">
-        <v>170.6535852352251</v>
+        <v>170.6535852352252</v>
       </c>
       <c r="X16" t="n">
-        <v>121.8960061819377</v>
+        <v>121.8960061819378</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.037427758614</v>
+        <v>111.0374277586141</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>33.52499049369527</v>
       </c>
       <c r="U17" t="n">
-        <v>68.12527786525571</v>
+        <v>68.12527786525573</v>
       </c>
       <c r="V17" t="n">
         <v>153.665532801687</v>
@@ -1932,7 +1932,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880557</v>
       </c>
       <c r="G18" t="n">
         <v>118.5267146673723</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.033390506631226</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S18" t="n">
         <v>127.4052342761665</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.66924630574758</v>
+        <v>176.9443692799857</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>10.90966902328503</v>
+        <v>195.9298774251149</v>
       </c>
       <c r="T19" t="n">
-        <v>47.15058279661795</v>
+        <v>47.15058279661797</v>
       </c>
       <c r="U19" t="n">
-        <v>97.54899028828399</v>
+        <v>282.5691986901138</v>
       </c>
       <c r="V19" t="n">
-        <v>78.29934332555419</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>95.47688964630433</v>
@@ -2096,7 +2096,7 @@
         <v>223.3894695217741</v>
       </c>
       <c r="H20" t="n">
-        <v>129.4575863740877</v>
+        <v>129.4575863740886</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>84.20314315898825</v>
       </c>
       <c r="I21" t="n">
-        <v>37.44528982701222</v>
+        <v>37.44528982701273</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.033390506630674</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S21" t="n">
         <v>127.4052342761665</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.66924630574758</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24.60541515803773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>10.90966902328503</v>
+        <v>10.90966902328502</v>
       </c>
       <c r="T22" t="n">
-        <v>47.15058279661795</v>
+        <v>47.15058279661797</v>
       </c>
       <c r="U22" t="n">
-        <v>97.54899028828399</v>
+        <v>282.5691986901138</v>
       </c>
       <c r="V22" t="n">
         <v>78.29934332555419</v>
@@ -2302,7 +2302,7 @@
         <v>95.47688964630433</v>
       </c>
       <c r="X22" t="n">
-        <v>46.7193105930169</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>35.86073216969325</v>
@@ -2415,7 +2415,7 @@
         <v>84.20314315898825</v>
       </c>
       <c r="I24" t="n">
-        <v>37.44528982701222</v>
+        <v>37.44528982701273</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.033390506630674</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S24" t="n">
         <v>127.4052342761665</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>66.81650212281575</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.1278671571699</v>
       </c>
       <c r="S25" t="n">
-        <v>10.90966902328503</v>
+        <v>195.9298774251149</v>
       </c>
       <c r="T25" t="n">
         <v>47.15058279661797</v>
@@ -2536,13 +2536,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>95.47688964630433</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>46.7193105930169</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.8051014496786</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>233.0948602811885</v>
       </c>
       <c r="I26" t="n">
-        <v>31.61235883597485</v>
+        <v>31.61235883597482</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.30419238042325</v>
+        <v>69.30419238042322</v>
       </c>
       <c r="T26" t="n">
         <v>137.1622644007961</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.033390506630674</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S27" t="n">
         <v>127.4052342761665</v>
@@ -2731,7 +2731,7 @@
         <v>70.06239151749745</v>
       </c>
       <c r="I28" t="n">
-        <v>41.99744035834816</v>
+        <v>41.99744035834814</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.74493266244093</v>
+        <v>28.74493266244092</v>
       </c>
       <c r="S28" t="n">
         <v>114.5469429303858</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.1068637595538</v>
+        <v>315.1068637595539</v>
       </c>
       <c r="C29" t="n">
         <v>307.8608119873696</v>
@@ -2798,7 +2798,7 @@
         <v>300.2037830007699</v>
       </c>
       <c r="E29" t="n">
-        <v>317.1747551398918</v>
+        <v>317.1747551398919</v>
       </c>
       <c r="F29" t="n">
         <v>331.3425595905929</v>
@@ -2807,10 +2807,10 @@
         <v>327.0267434288749</v>
       </c>
       <c r="H29" t="n">
-        <v>233.0948602811884</v>
+        <v>233.0948602811885</v>
       </c>
       <c r="I29" t="n">
-        <v>31.61235883597481</v>
+        <v>31.61235883597482</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.30419238042322</v>
+        <v>69.30419238042323</v>
       </c>
       <c r="T29" t="n">
         <v>137.1622644007961</v>
@@ -2849,7 +2849,7 @@
         <v>171.7625517723565</v>
       </c>
       <c r="V29" t="n">
-        <v>257.3028067087877</v>
+        <v>257.3028067087878</v>
       </c>
       <c r="W29" t="n">
         <v>285.9061101866664</v>
@@ -2858,7 +2858,7 @@
         <v>304.1751445215447</v>
       </c>
       <c r="Y29" t="n">
-        <v>311.1428674938758</v>
+        <v>311.1428674938759</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.033390506630667</v>
+        <v>3.033390506630663</v>
       </c>
       <c r="S30" t="n">
         <v>127.4052342761665</v>
@@ -2950,25 +2950,25 @@
         <v>101.9730040096592</v>
       </c>
       <c r="C31" t="n">
-        <v>87.12013225994163</v>
+        <v>87.12013225994164</v>
       </c>
       <c r="D31" t="n">
-        <v>72.69384747178135</v>
+        <v>72.69384747178137</v>
       </c>
       <c r="E31" t="n">
-        <v>72.62028952466046</v>
+        <v>72.62028952466048</v>
       </c>
       <c r="F31" t="n">
-        <v>74.36974094442773</v>
+        <v>74.36974094442775</v>
       </c>
       <c r="G31" t="n">
-        <v>84.90981777607509</v>
+        <v>84.9098177760751</v>
       </c>
       <c r="H31" t="n">
-        <v>70.06239151749742</v>
+        <v>70.06239151749743</v>
       </c>
       <c r="I31" t="n">
-        <v>41.99744035834814</v>
+        <v>41.99744035834815</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.74493266244091</v>
+        <v>28.74493266244092</v>
       </c>
       <c r="S31" t="n">
         <v>114.5469429303858</v>
@@ -3047,7 +3047,7 @@
         <v>233.0948602811885</v>
       </c>
       <c r="I32" t="n">
-        <v>31.61235883597487</v>
+        <v>31.61235883597483</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.30419238042327</v>
+        <v>69.30419238042323</v>
       </c>
       <c r="T32" t="n">
         <v>137.1622644007961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.033390506630674</v>
+        <v>3.033390506630656</v>
       </c>
       <c r="S33" t="n">
         <v>127.4052342761665</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.9730040096593</v>
+        <v>101.9730040096592</v>
       </c>
       <c r="C34" t="n">
-        <v>87.12013225994167</v>
+        <v>87.12013225994166</v>
       </c>
       <c r="D34" t="n">
-        <v>72.6938474717814</v>
+        <v>72.69384747178138</v>
       </c>
       <c r="E34" t="n">
-        <v>72.62028952466051</v>
+        <v>72.62028952466049</v>
       </c>
       <c r="F34" t="n">
-        <v>74.36974094442778</v>
+        <v>74.36974094442776</v>
       </c>
       <c r="G34" t="n">
-        <v>84.90981777607513</v>
+        <v>84.90981777607512</v>
       </c>
       <c r="H34" t="n">
-        <v>70.06239151749747</v>
+        <v>70.06239151749746</v>
       </c>
       <c r="I34" t="n">
-        <v>41.99744035834819</v>
+        <v>41.99744035834816</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.74493266244096</v>
+        <v>28.74493266244093</v>
       </c>
       <c r="S34" t="n">
-        <v>114.5469429303859</v>
+        <v>114.5469429303858</v>
       </c>
       <c r="T34" t="n">
         <v>150.7878567037188</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.8026713791307</v>
+        <v>245.8026713791306</v>
       </c>
       <c r="C35" t="n">
         <v>238.5566196069464</v>
@@ -3275,10 +3275,10 @@
         <v>247.8705627594686</v>
       </c>
       <c r="F35" t="n">
-        <v>262.0383672101698</v>
+        <v>262.0383672101697</v>
       </c>
       <c r="G35" t="n">
-        <v>257.7225510484517</v>
+        <v>257.7225510484516</v>
       </c>
       <c r="H35" t="n">
         <v>163.7906679007652</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>67.85807202037284</v>
+        <v>67.85807202037282</v>
       </c>
       <c r="U35" t="n">
         <v>102.4583593919333</v>
@@ -3326,10 +3326,10 @@
         <v>187.9986143283645</v>
       </c>
       <c r="W35" t="n">
-        <v>216.6019178062432</v>
+        <v>216.6019178062431</v>
       </c>
       <c r="X35" t="n">
-        <v>234.8709521411215</v>
+        <v>234.8709521411214</v>
       </c>
       <c r="Y35" t="n">
         <v>241.8386751134526</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.66881162923602</v>
+        <v>32.66881162923599</v>
       </c>
       <c r="C37" t="n">
-        <v>17.81593987951842</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>3.389655091358151</v>
+        <v>3.389655091358122</v>
       </c>
       <c r="E37" t="n">
-        <v>3.316097144237261</v>
+        <v>3.316097144237233</v>
       </c>
       <c r="F37" t="n">
-        <v>5.06554856400453</v>
+        <v>5.065548564004501</v>
       </c>
       <c r="G37" t="n">
-        <v>15.60562539565189</v>
+        <v>15.60562539565186</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7581991370742287</v>
+        <v>0.7581991370741927</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.1278671571699</v>
       </c>
       <c r="S37" t="n">
-        <v>195.9298774251149</v>
+        <v>45.24275054996257</v>
       </c>
       <c r="T37" t="n">
-        <v>232.1707911984478</v>
+        <v>81.48366432329551</v>
       </c>
       <c r="U37" t="n">
-        <v>131.8820718149616</v>
+        <v>133.433497865139</v>
       </c>
       <c r="V37" t="n">
-        <v>112.6324248522318</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>241.4892643803291</v>
+        <v>129.8099711729819</v>
       </c>
       <c r="X37" t="n">
-        <v>81.05239211969447</v>
+        <v>81.05239211969445</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.19381369637082</v>
+        <v>70.1938136963708</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.8026713791307</v>
+        <v>245.8026713791306</v>
       </c>
       <c r="C38" t="n">
         <v>238.5566196069464</v>
@@ -3512,10 +3512,10 @@
         <v>247.8705627594686</v>
       </c>
       <c r="F38" t="n">
-        <v>262.0383672101698</v>
+        <v>262.0383672101697</v>
       </c>
       <c r="G38" t="n">
-        <v>257.7225510484517</v>
+        <v>257.7225510484516</v>
       </c>
       <c r="H38" t="n">
         <v>163.7906679007652</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>67.85807202037284</v>
+        <v>67.85807202037282</v>
       </c>
       <c r="U38" t="n">
         <v>102.4583593919333</v>
@@ -3563,10 +3563,10 @@
         <v>187.9986143283645</v>
       </c>
       <c r="W38" t="n">
-        <v>216.6019178062432</v>
+        <v>216.6019178062431</v>
       </c>
       <c r="X38" t="n">
-        <v>234.8709521411215</v>
+        <v>234.8709521411214</v>
       </c>
       <c r="Y38" t="n">
         <v>241.8386751134526</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.033390506630663</v>
+        <v>3.033390506630674</v>
       </c>
       <c r="S39" t="n">
         <v>127.4052342761665</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.66881162923602</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>17.81593987951842</v>
+        <v>17.8159398795184</v>
       </c>
       <c r="D40" t="n">
-        <v>3.389655091358151</v>
+        <v>3.389655091358122</v>
       </c>
       <c r="E40" t="n">
-        <v>3.316097144237261</v>
+        <v>3.316097144237233</v>
       </c>
       <c r="F40" t="n">
-        <v>5.06554856400453</v>
+        <v>5.065548564004501</v>
       </c>
       <c r="G40" t="n">
-        <v>15.60562539565189</v>
+        <v>15.60562539565186</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7581991370742287</v>
+        <v>0.7581991370741941</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.12786715717</v>
       </c>
       <c r="S40" t="n">
-        <v>45.24275054996261</v>
+        <v>45.24275054996257</v>
       </c>
       <c r="T40" t="n">
-        <v>81.48366432329553</v>
+        <v>83.03509037347288</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5691986901138</v>
+        <v>131.8820718149615</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>112.6324248522317</v>
       </c>
       <c r="W40" t="n">
-        <v>241.4892643803291</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>81.05239211969447</v>
+        <v>81.05239211969445</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.19381369637082</v>
+        <v>70.1938136963708</v>
       </c>
     </row>
     <row r="41">
@@ -3904,16 +3904,16 @@
         <v>3.389655091358122</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>3.316097144237233</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>5.065548564004501</v>
       </c>
       <c r="G43" t="n">
         <v>15.60562539565186</v>
       </c>
       <c r="H43" t="n">
-        <v>112.4374923444217</v>
+        <v>0.7581991370741941</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.24275054996258</v>
+        <v>195.9298774251149</v>
       </c>
       <c r="T43" t="n">
-        <v>81.4836643232955</v>
+        <v>81.48366432329551</v>
       </c>
       <c r="U43" t="n">
-        <v>131.8820718149615</v>
+        <v>282.5691986901138</v>
       </c>
       <c r="V43" t="n">
-        <v>112.6324248522317</v>
+        <v>224.3117180595791</v>
       </c>
       <c r="W43" t="n">
         <v>129.8099711729819</v>
@@ -3992,7 +3992,7 @@
         <v>257.7225510484516</v>
       </c>
       <c r="H44" t="n">
-        <v>163.7906679007652</v>
+        <v>163.7906679007643</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>84.20314315898825</v>
       </c>
       <c r="I45" t="n">
-        <v>37.44528982701222</v>
+        <v>37.44528982701223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.033390506630674</v>
+        <v>3.033390506630678</v>
       </c>
       <c r="S45" t="n">
         <v>127.4052342761665</v>
@@ -4150,7 +4150,7 @@
         <v>15.60562539565186</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7581991370742003</v>
+        <v>0.7581991370741945</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.12786715717</v>
       </c>
       <c r="S46" t="n">
-        <v>195.9298774251149</v>
+        <v>45.24275054996257</v>
       </c>
       <c r="T46" t="n">
-        <v>232.1707911984478</v>
+        <v>81.48366432329551</v>
       </c>
       <c r="U46" t="n">
-        <v>243.561365022309</v>
+        <v>282.5691986901138</v>
       </c>
       <c r="V46" t="n">
         <v>112.6324248522317</v>
       </c>
       <c r="W46" t="n">
-        <v>129.8099711729819</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>81.05239211969445</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.1938136963708</v>
+        <v>71.74523974654811</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1595.012537840927</v>
+        <v>912.258510996441</v>
       </c>
       <c r="C11" t="n">
-        <v>1312.790079589221</v>
+        <v>630.0360527447342</v>
       </c>
       <c r="D11" t="n">
-        <v>1038.301994051251</v>
+        <v>355.5479672067646</v>
       </c>
       <c r="E11" t="n">
-        <v>746.6715124131583</v>
+        <v>355.5479672067646</v>
       </c>
       <c r="F11" t="n">
-        <v>440.7301171884988</v>
+        <v>49.60657198210492</v>
       </c>
       <c r="G11" t="n">
-        <v>139.1481322282015</v>
+        <v>49.60657198210492</v>
       </c>
       <c r="H11" t="n">
-        <v>46.42295529746358</v>
+        <v>49.60657198210492</v>
       </c>
       <c r="I11" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746362</v>
       </c>
       <c r="J11" t="n">
-        <v>243.2900750201779</v>
+        <v>243.290075020178</v>
       </c>
       <c r="K11" t="n">
-        <v>680.532697970886</v>
+        <v>243.290075020178</v>
       </c>
       <c r="L11" t="n">
-        <v>680.532697970886</v>
+        <v>513.610684848067</v>
       </c>
       <c r="M11" t="n">
-        <v>680.532697970886</v>
+        <v>513.610684848067</v>
       </c>
       <c r="N11" t="n">
-        <v>1255.016769776998</v>
+        <v>1088.094756654179</v>
       </c>
       <c r="O11" t="n">
-        <v>1798.71663657001</v>
+        <v>1631.794623447192</v>
       </c>
       <c r="P11" t="n">
-        <v>2235.375767382754</v>
+        <v>2068.453754259936</v>
       </c>
       <c r="Q11" t="n">
-        <v>2321.147764873179</v>
+        <v>2319.737830558684</v>
       </c>
       <c r="R11" t="n">
-        <v>2321.147764873179</v>
+        <v>2321.147764873181</v>
       </c>
       <c r="S11" t="n">
-        <v>2279.891589052731</v>
+        <v>2279.891589052733</v>
       </c>
       <c r="T11" t="n">
-        <v>2170.091906140998</v>
+        <v>2170.091906141</v>
       </c>
       <c r="U11" t="n">
-        <v>2170.091906140998</v>
+        <v>2025.342438005468</v>
       </c>
       <c r="V11" t="n">
-        <v>2170.091906140998</v>
+        <v>1794.188671954349</v>
       </c>
       <c r="W11" t="n">
-        <v>2170.091906140998</v>
+        <v>1534.142680167999</v>
       </c>
       <c r="X11" t="n">
-        <v>2170.091906140998</v>
+        <v>1255.643118346418</v>
       </c>
       <c r="Y11" t="n">
-        <v>1884.554240306961</v>
+        <v>1201.800213462475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>830.6456093677027</v>
+        <v>830.6456093677054</v>
       </c>
       <c r="C12" t="n">
-        <v>679.9913789277949</v>
+        <v>679.9913789277977</v>
       </c>
       <c r="D12" t="n">
-        <v>549.9024115492753</v>
+        <v>549.902411549278</v>
       </c>
       <c r="E12" t="n">
-        <v>413.4559206601629</v>
+        <v>413.4559206601657</v>
       </c>
       <c r="F12" t="n">
-        <v>289.0241145432947</v>
+        <v>289.0241145432975</v>
       </c>
       <c r="G12" t="n">
-        <v>169.3001603338277</v>
+        <v>169.3001603338305</v>
       </c>
       <c r="H12" t="n">
-        <v>84.24648037525371</v>
+        <v>84.2464803752565</v>
       </c>
       <c r="I12" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746362</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6382315549039</v>
+        <v>46.42295529746362</v>
       </c>
       <c r="K12" t="n">
-        <v>563.5327337095342</v>
+        <v>46.42295529746362</v>
       </c>
       <c r="L12" t="n">
-        <v>1118.572755652459</v>
+        <v>601.4629772403885</v>
       </c>
       <c r="M12" t="n">
-        <v>1693.056827458571</v>
+        <v>703.6993044077992</v>
       </c>
       <c r="N12" t="n">
-        <v>1694.152675375596</v>
+        <v>1278.183376213912</v>
       </c>
       <c r="O12" t="n">
-        <v>2044.763131158055</v>
+        <v>1852.667448020024</v>
       </c>
       <c r="P12" t="n">
-        <v>2044.763131158055</v>
+        <v>2321.147764873181</v>
       </c>
       <c r="Q12" t="n">
-        <v>2321.147764873179</v>
+        <v>2321.147764873181</v>
       </c>
       <c r="R12" t="n">
-        <v>2318.0837340584</v>
+        <v>2318.083734058403</v>
       </c>
       <c r="S12" t="n">
-        <v>2189.391578223888</v>
+        <v>2189.391578223891</v>
       </c>
       <c r="T12" t="n">
-        <v>2013.761532902869</v>
+        <v>2013.761532902871</v>
       </c>
       <c r="U12" t="n">
-        <v>1803.720485878791</v>
+        <v>1803.720485878794</v>
       </c>
       <c r="V12" t="n">
-        <v>1581.180484249858</v>
+        <v>1581.180484249861</v>
       </c>
       <c r="W12" t="n">
-        <v>1351.063238383145</v>
+        <v>1351.063238383148</v>
       </c>
       <c r="X12" t="n">
-        <v>1161.756160733157</v>
+        <v>1161.75616073316</v>
       </c>
       <c r="Y12" t="n">
-        <v>982.4419438086641</v>
+        <v>982.4419438086668</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>354.048825626223</v>
+        <v>354.0488256262236</v>
       </c>
       <c r="C13" t="n">
-        <v>294.7967509375749</v>
+        <v>294.7967509375754</v>
       </c>
       <c r="D13" t="n">
-        <v>250.1166810854523</v>
+        <v>250.1166810854527</v>
       </c>
       <c r="E13" t="n">
-        <v>205.5109121900175</v>
+        <v>205.5109121900178</v>
       </c>
       <c r="F13" t="n">
-        <v>159.1380206483531</v>
+        <v>159.1380206483534</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1185868524995</v>
+        <v>102.1185868524997</v>
       </c>
       <c r="H13" t="n">
-        <v>60.09655331783543</v>
+        <v>60.09655331783556</v>
       </c>
       <c r="I13" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746362</v>
       </c>
       <c r="J13" t="n">
-        <v>46.42295529746358</v>
+        <v>111.9993587219596</v>
       </c>
       <c r="K13" t="n">
-        <v>160.3210970648698</v>
+        <v>225.8975004893659</v>
       </c>
       <c r="L13" t="n">
-        <v>365.4784668410306</v>
+        <v>431.0548702655266</v>
       </c>
       <c r="M13" t="n">
-        <v>703.7752202534846</v>
+        <v>660.6065459932006</v>
       </c>
       <c r="N13" t="n">
-        <v>994.7727266737504</v>
+        <v>994.7727266737514</v>
       </c>
       <c r="O13" t="n">
-        <v>1196.485090665557</v>
+        <v>1196.485090665558</v>
       </c>
       <c r="P13" t="n">
-        <v>1349.738994403552</v>
+        <v>1349.738994403553</v>
       </c>
       <c r="Q13" t="n">
-        <v>1376.270206435255</v>
+        <v>1376.270206435256</v>
       </c>
       <c r="R13" t="n">
-        <v>1375.98297982489</v>
+        <v>1375.982979824891</v>
       </c>
       <c r="S13" t="n">
-        <v>1289.027055974177</v>
+        <v>1289.027055974178</v>
       </c>
       <c r="T13" t="n">
-        <v>1165.464148514037</v>
+        <v>1165.464148514038</v>
       </c>
       <c r="U13" t="n">
-        <v>990.9937587390825</v>
+        <v>990.9937587390835</v>
       </c>
       <c r="V13" t="n">
-        <v>835.9674568052694</v>
+        <v>835.9674568052703</v>
       </c>
       <c r="W13" t="n">
-        <v>663.5900979818098</v>
+        <v>663.5900979818106</v>
       </c>
       <c r="X13" t="n">
-        <v>540.4628190101556</v>
+        <v>540.4628190101563</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.3038010721616</v>
+        <v>428.3038010721622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1426.31265893108</v>
+        <v>939.352410418769</v>
       </c>
       <c r="C14" t="n">
-        <v>1144.090200679374</v>
+        <v>657.1299521670626</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.090200679374</v>
+        <v>657.1299521670626</v>
       </c>
       <c r="E14" t="n">
-        <v>852.4597190412808</v>
+        <v>657.1299521670626</v>
       </c>
       <c r="F14" t="n">
-        <v>546.5183238166212</v>
+        <v>351.1885569424028</v>
       </c>
       <c r="G14" t="n">
-        <v>244.9363388563233</v>
+        <v>49.60657198210485</v>
       </c>
       <c r="H14" t="n">
-        <v>49.6065719821048</v>
+        <v>49.60657198210485</v>
       </c>
       <c r="I14" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746357</v>
       </c>
       <c r="J14" t="n">
-        <v>46.42295529746358</v>
+        <v>243.2900750201779</v>
       </c>
       <c r="K14" t="n">
-        <v>46.42295529746358</v>
+        <v>680.5326979708861</v>
       </c>
       <c r="L14" t="n">
-        <v>620.9070271035753</v>
+        <v>1255.016769776998</v>
       </c>
       <c r="M14" t="n">
-        <v>1195.391098909687</v>
+        <v>1829.500841583109</v>
       </c>
       <c r="N14" t="n">
-        <v>1769.875170715799</v>
+        <v>1829.500841583109</v>
       </c>
       <c r="O14" t="n">
-        <v>2313.575037508811</v>
+        <v>2068.453754259933</v>
       </c>
       <c r="P14" t="n">
-        <v>2321.147764873179</v>
+        <v>2068.453754259933</v>
       </c>
       <c r="Q14" t="n">
-        <v>2321.147764873179</v>
+        <v>2319.737830558681</v>
       </c>
       <c r="R14" t="n">
-        <v>2321.147764873179</v>
+        <v>2321.147764873178</v>
       </c>
       <c r="S14" t="n">
         <v>2279.891589052731</v>
       </c>
       <c r="T14" t="n">
-        <v>2279.891589052731</v>
+        <v>2170.091906140997</v>
       </c>
       <c r="U14" t="n">
-        <v>2279.891589052731</v>
+        <v>2025.342438005465</v>
       </c>
       <c r="V14" t="n">
-        <v>2279.891589052731</v>
+        <v>1794.188671954346</v>
       </c>
       <c r="W14" t="n">
-        <v>2279.891589052731</v>
+        <v>1534.142680167997</v>
       </c>
       <c r="X14" t="n">
-        <v>2001.392027231151</v>
+        <v>1514.431778718839</v>
       </c>
       <c r="Y14" t="n">
-        <v>1715.854361397115</v>
+        <v>1228.894112884803</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>830.6456093677027</v>
+        <v>830.6456093677029</v>
       </c>
       <c r="C15" t="n">
-        <v>679.9913789277949</v>
+        <v>679.991378927795</v>
       </c>
       <c r="D15" t="n">
         <v>549.9024115492753</v>
       </c>
       <c r="E15" t="n">
-        <v>413.4559206601629</v>
+        <v>413.455920660163</v>
       </c>
       <c r="F15" t="n">
-        <v>289.0241145432947</v>
+        <v>289.0241145432946</v>
       </c>
       <c r="G15" t="n">
-        <v>169.3001603338277</v>
+        <v>169.3001603338276</v>
       </c>
       <c r="H15" t="n">
-        <v>84.24648037525371</v>
+        <v>84.2464803752537</v>
       </c>
       <c r="I15" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746357</v>
       </c>
       <c r="J15" t="n">
         <v>190.6382315549039</v>
       </c>
       <c r="K15" t="n">
-        <v>563.5327337095342</v>
+        <v>563.5327337095343</v>
       </c>
       <c r="L15" t="n">
-        <v>1000.70289458176</v>
+        <v>1118.572755652459</v>
       </c>
       <c r="M15" t="n">
-        <v>1000.70289458176</v>
+        <v>1118.572755652459</v>
       </c>
       <c r="N15" t="n">
-        <v>1001.798742498786</v>
+        <v>1693.056827458571</v>
       </c>
       <c r="O15" t="n">
-        <v>1576.282814304897</v>
+        <v>1693.056827458571</v>
       </c>
       <c r="P15" t="n">
-        <v>2044.763131158055</v>
+        <v>2044.763131158054</v>
       </c>
       <c r="Q15" t="n">
-        <v>2321.147764873179</v>
+        <v>2321.147764873178</v>
       </c>
       <c r="R15" t="n">
         <v>2318.0837340584</v>
@@ -5400,7 +5400,7 @@
         <v>1161.756160733157</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.4419438086641</v>
+        <v>982.4419438086643</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.0488256262229</v>
+        <v>354.0488256262235</v>
       </c>
       <c r="C16" t="n">
-        <v>294.7967509375748</v>
+        <v>294.7967509375753</v>
       </c>
       <c r="D16" t="n">
-        <v>250.1166810854523</v>
+        <v>250.1166810854527</v>
       </c>
       <c r="E16" t="n">
-        <v>205.5109121900175</v>
+        <v>205.5109121900178</v>
       </c>
       <c r="F16" t="n">
-        <v>159.1380206483531</v>
+        <v>159.1380206483533</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1185868524995</v>
+        <v>102.1185868524996</v>
       </c>
       <c r="H16" t="n">
-        <v>60.09655331783543</v>
+        <v>60.0965533178355</v>
       </c>
       <c r="I16" t="n">
-        <v>46.42295529746358</v>
+        <v>46.42295529746357</v>
       </c>
       <c r="J16" t="n">
-        <v>144.9056154093053</v>
+        <v>46.42295529746357</v>
       </c>
       <c r="K16" t="n">
-        <v>258.8037571767115</v>
+        <v>225.8975004893659</v>
       </c>
       <c r="L16" t="n">
-        <v>463.9611269528723</v>
+        <v>431.0548702655266</v>
       </c>
       <c r="M16" t="n">
-        <v>693.5128026805462</v>
+        <v>660.6065459932006</v>
       </c>
       <c r="N16" t="n">
-        <v>918.9339056763171</v>
+        <v>886.0276489889715</v>
       </c>
       <c r="O16" t="n">
-        <v>1120.646269668124</v>
+        <v>1087.740012980778</v>
       </c>
       <c r="P16" t="n">
-        <v>1273.900173406119</v>
+        <v>1349.738994403553</v>
       </c>
       <c r="Q16" t="n">
-        <v>1376.270206435255</v>
+        <v>1376.270206435256</v>
       </c>
       <c r="R16" t="n">
-        <v>1375.98297982489</v>
+        <v>1375.982979824891</v>
       </c>
       <c r="S16" t="n">
-        <v>1289.027055974177</v>
+        <v>1289.027055974178</v>
       </c>
       <c r="T16" t="n">
-        <v>1165.464148514037</v>
+        <v>1165.464148514038</v>
       </c>
       <c r="U16" t="n">
-        <v>990.9937587390825</v>
+        <v>990.9937587390835</v>
       </c>
       <c r="V16" t="n">
-        <v>835.9674568052694</v>
+        <v>835.9674568052703</v>
       </c>
       <c r="W16" t="n">
-        <v>663.5900979818098</v>
+        <v>663.5900979818105</v>
       </c>
       <c r="X16" t="n">
-        <v>540.4628190101555</v>
+        <v>540.4628190101562</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.3038010721615</v>
+        <v>428.3038010721622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1253.37231891977</v>
+        <v>1253.372318919769</v>
       </c>
       <c r="C17" t="n">
         <v>1047.085916818488</v>
       </c>
       <c r="D17" t="n">
-        <v>848.5338874309434</v>
+        <v>848.5338874309432</v>
       </c>
       <c r="E17" t="n">
-        <v>632.8394619432756</v>
+        <v>632.8394619432754</v>
       </c>
       <c r="F17" t="n">
-        <v>402.8341228690412</v>
+        <v>402.8341228690408</v>
       </c>
       <c r="G17" t="n">
-        <v>177.1881940591684</v>
+        <v>177.1881940591683</v>
       </c>
       <c r="H17" t="n">
         <v>46.42295529746358</v>
@@ -5513,28 +5513,28 @@
         <v>46.42295529746358</v>
       </c>
       <c r="J17" t="n">
-        <v>46.42295529746358</v>
+        <v>243.2900750201779</v>
       </c>
       <c r="K17" t="n">
-        <v>483.6655782481718</v>
+        <v>680.5326979708861</v>
       </c>
       <c r="L17" t="n">
-        <v>1058.149650054283</v>
+        <v>680.5326979708861</v>
       </c>
       <c r="M17" t="n">
-        <v>1058.149650054283</v>
+        <v>1255.016769776998</v>
       </c>
       <c r="N17" t="n">
-        <v>1632.633721860395</v>
+        <v>1776.037963765669</v>
       </c>
       <c r="O17" t="n">
-        <v>2176.333588653408</v>
+        <v>2319.737830558682</v>
       </c>
       <c r="P17" t="n">
-        <v>2321.147764873179</v>
+        <v>2319.737830558682</v>
       </c>
       <c r="Q17" t="n">
-        <v>2321.147764873179</v>
+        <v>2319.737830558682</v>
       </c>
       <c r="R17" t="n">
         <v>2321.147764873179</v>
@@ -5552,7 +5552,7 @@
         <v>2063.25301622607</v>
       </c>
       <c r="W17" t="n">
-        <v>1879.143080590146</v>
+        <v>1879.143080590145</v>
       </c>
       <c r="X17" t="n">
         <v>1676.57957491899</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>830.6456093677027</v>
+        <v>830.6456093677032</v>
       </c>
       <c r="C18" t="n">
-        <v>679.9913789277949</v>
+        <v>679.9913789277954</v>
       </c>
       <c r="D18" t="n">
-        <v>549.9024115492753</v>
+        <v>549.9024115492757</v>
       </c>
       <c r="E18" t="n">
-        <v>413.4559206601629</v>
+        <v>413.4559206601634</v>
       </c>
       <c r="F18" t="n">
         <v>289.0241145432947</v>
@@ -5586,7 +5586,7 @@
         <v>169.3001603338277</v>
       </c>
       <c r="H18" t="n">
-        <v>84.24648037525371</v>
+        <v>84.2464803752537</v>
       </c>
       <c r="I18" t="n">
         <v>46.42295529746358</v>
@@ -5595,22 +5595,22 @@
         <v>190.6382315549039</v>
       </c>
       <c r="K18" t="n">
-        <v>563.5327337095342</v>
+        <v>563.5327337095343</v>
       </c>
       <c r="L18" t="n">
-        <v>1118.572755652459</v>
+        <v>895.7949875458308</v>
       </c>
       <c r="M18" t="n">
-        <v>1118.572755652459</v>
+        <v>1470.279059351943</v>
       </c>
       <c r="N18" t="n">
-        <v>1119.668603569485</v>
+        <v>2044.763131158054</v>
       </c>
       <c r="O18" t="n">
-        <v>1576.282814304897</v>
+        <v>2044.763131158054</v>
       </c>
       <c r="P18" t="n">
-        <v>2044.763131158055</v>
+        <v>2044.763131158054</v>
       </c>
       <c r="Q18" t="n">
         <v>2321.147764873179</v>
@@ -5619,25 +5619,25 @@
         <v>2318.0837340584</v>
       </c>
       <c r="S18" t="n">
-        <v>2189.391578223888</v>
+        <v>2189.391578223889</v>
       </c>
       <c r="T18" t="n">
         <v>2013.761532902869</v>
       </c>
       <c r="U18" t="n">
-        <v>1803.720485878791</v>
+        <v>1803.720485878792</v>
       </c>
       <c r="V18" t="n">
-        <v>1581.180484249858</v>
+        <v>1581.180484249859</v>
       </c>
       <c r="W18" t="n">
-        <v>1351.063238383145</v>
+        <v>1351.063238383146</v>
       </c>
       <c r="X18" t="n">
         <v>1161.756160733157</v>
       </c>
       <c r="Y18" t="n">
-        <v>982.4419438086641</v>
+        <v>982.4419438086645</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>685.1459332567842</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="C19" t="n">
-        <v>514.9408153227735</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="D19" t="n">
-        <v>359.3077022252882</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="E19" t="n">
-        <v>203.7488900844906</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="F19" t="n">
         <v>46.42295529746358</v>
@@ -5674,16 +5674,16 @@
         <v>46.42295529746358</v>
       </c>
       <c r="K19" t="n">
-        <v>160.3210970648698</v>
+        <v>160.3210970648699</v>
       </c>
       <c r="L19" t="n">
         <v>365.4784668410306</v>
       </c>
       <c r="M19" t="n">
-        <v>595.0301425687045</v>
+        <v>595.0301425687046</v>
       </c>
       <c r="N19" t="n">
-        <v>820.4512455644754</v>
+        <v>820.4512455644756</v>
       </c>
       <c r="O19" t="n">
         <v>1022.163609556282</v>
@@ -5692,31 +5692,31 @@
         <v>1175.417513294277</v>
       </c>
       <c r="Q19" t="n">
-        <v>1201.948725325979</v>
+        <v>1201.94872532598</v>
       </c>
       <c r="R19" t="n">
-        <v>1201.948725325979</v>
+        <v>1201.94872532598</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.928857625692</v>
+        <v>1004.039758229904</v>
       </c>
       <c r="T19" t="n">
-        <v>1143.302006315977</v>
+        <v>956.4129069201889</v>
       </c>
       <c r="U19" t="n">
-        <v>1044.767672691447</v>
+        <v>670.9894738998719</v>
       </c>
       <c r="V19" t="n">
-        <v>965.677426908059</v>
+        <v>405.0101287206961</v>
       </c>
       <c r="W19" t="n">
-        <v>869.2361242350244</v>
+        <v>308.5688260476614</v>
       </c>
       <c r="X19" t="n">
-        <v>822.0449014137952</v>
+        <v>261.3776032264323</v>
       </c>
       <c r="Y19" t="n">
-        <v>785.8219396262263</v>
+        <v>225.1546414388633</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1253.37231891977</v>
+        <v>1253.372318919769</v>
       </c>
       <c r="C20" t="n">
-        <v>1047.085916818488</v>
+        <v>1047.085916818487</v>
       </c>
       <c r="D20" t="n">
-        <v>848.5338874309434</v>
+        <v>848.533887430943</v>
       </c>
       <c r="E20" t="n">
-        <v>632.8394619432756</v>
+        <v>632.8394619432752</v>
       </c>
       <c r="F20" t="n">
-        <v>402.8341228690411</v>
+        <v>402.8341228690406</v>
       </c>
       <c r="G20" t="n">
-        <v>177.1881940591683</v>
+        <v>177.1881940591692</v>
       </c>
       <c r="H20" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="I20" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J20" t="n">
-        <v>46.42295529746357</v>
+        <v>76.36806189735705</v>
       </c>
       <c r="K20" t="n">
-        <v>53.9956826618311</v>
+        <v>513.6106848480653</v>
       </c>
       <c r="L20" t="n">
-        <v>628.4797544679427</v>
+        <v>1088.094756654177</v>
       </c>
       <c r="M20" t="n">
-        <v>1202.963826274054</v>
+        <v>1088.094756654177</v>
       </c>
       <c r="N20" t="n">
-        <v>1777.447898080166</v>
+        <v>1088.094756654177</v>
       </c>
       <c r="O20" t="n">
-        <v>2321.147764873178</v>
+        <v>1631.794623447189</v>
       </c>
       <c r="P20" t="n">
-        <v>2321.147764873178</v>
+        <v>2068.453754259933</v>
       </c>
       <c r="Q20" t="n">
-        <v>2321.147764873178</v>
+        <v>2319.737830558682</v>
       </c>
       <c r="R20" t="n">
-        <v>2321.147764873178</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="S20" t="n">
-        <v>2321.147764873178</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="T20" t="n">
         <v>2287.284138111871</v>
@@ -5789,7 +5789,7 @@
         <v>2063.25301622607</v>
       </c>
       <c r="W20" t="n">
-        <v>1879.143080590146</v>
+        <v>1879.143080590145</v>
       </c>
       <c r="X20" t="n">
         <v>1676.57957491899</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>830.6456093677029</v>
+        <v>830.6456093677032</v>
       </c>
       <c r="C21" t="n">
-        <v>679.9913789277952</v>
+        <v>679.9913789277954</v>
       </c>
       <c r="D21" t="n">
-        <v>549.9024115492755</v>
+        <v>549.9024115492757</v>
       </c>
       <c r="E21" t="n">
-        <v>413.4559206601632</v>
+        <v>413.4559206601634</v>
       </c>
       <c r="F21" t="n">
-        <v>289.024114543295</v>
+        <v>289.0241145432952</v>
       </c>
       <c r="G21" t="n">
-        <v>169.3001603338276</v>
+        <v>169.3001603338282</v>
       </c>
       <c r="H21" t="n">
-        <v>84.24648037525361</v>
+        <v>84.24648037525422</v>
       </c>
       <c r="I21" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J21" t="n">
-        <v>46.42295529746357</v>
+        <v>190.6382315549039</v>
       </c>
       <c r="K21" t="n">
-        <v>46.42295529746357</v>
+        <v>190.6382315549039</v>
       </c>
       <c r="L21" t="n">
-        <v>601.4629772403882</v>
+        <v>190.6382315549039</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.9470490465</v>
+        <v>765.1223033610156</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.663693067067</v>
+        <v>1001.798742498785</v>
       </c>
       <c r="O21" t="n">
-        <v>2321.147764873178</v>
+        <v>1576.282814304897</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.147764873178</v>
+        <v>2044.763131158054</v>
       </c>
       <c r="Q21" t="n">
-        <v>2321.147764873178</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="R21" t="n">
         <v>2318.0837340584</v>
@@ -5862,19 +5862,19 @@
         <v>2013.761532902869</v>
       </c>
       <c r="U21" t="n">
-        <v>1803.720485878791</v>
+        <v>1803.720485878792</v>
       </c>
       <c r="V21" t="n">
-        <v>1581.180484249858</v>
+        <v>1581.180484249859</v>
       </c>
       <c r="W21" t="n">
-        <v>1351.063238383145</v>
+        <v>1351.063238383146</v>
       </c>
       <c r="X21" t="n">
         <v>1161.756160733157</v>
       </c>
       <c r="Y21" t="n">
-        <v>982.4419438086643</v>
+        <v>982.4419438086645</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>685.1459332567842</v>
+        <v>226.8357221433497</v>
       </c>
       <c r="C22" t="n">
-        <v>514.9408153227735</v>
+        <v>226.8357221433497</v>
       </c>
       <c r="D22" t="n">
-        <v>359.3077022252882</v>
+        <v>226.8357221433497</v>
       </c>
       <c r="E22" t="n">
-        <v>203.7488900844906</v>
+        <v>71.2769100025522</v>
       </c>
       <c r="F22" t="n">
-        <v>46.42295529746357</v>
+        <v>71.2769100025522</v>
       </c>
       <c r="G22" t="n">
-        <v>46.42295529746357</v>
+        <v>71.2769100025522</v>
       </c>
       <c r="H22" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="I22" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J22" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="K22" t="n">
-        <v>160.3210970648698</v>
+        <v>160.3210970648699</v>
       </c>
       <c r="L22" t="n">
         <v>365.4784668410306</v>
       </c>
       <c r="M22" t="n">
-        <v>595.0301425687045</v>
+        <v>595.0301425687046</v>
       </c>
       <c r="N22" t="n">
-        <v>820.4512455644754</v>
+        <v>820.4512455644756</v>
       </c>
       <c r="O22" t="n">
         <v>1022.163609556282</v>
@@ -5929,10 +5929,10 @@
         <v>1175.417513294277</v>
       </c>
       <c r="Q22" t="n">
-        <v>1201.948725325979</v>
+        <v>1201.94872532598</v>
       </c>
       <c r="R22" t="n">
-        <v>1201.948725325979</v>
+        <v>1201.94872532598</v>
       </c>
       <c r="S22" t="n">
         <v>1190.928857625692</v>
@@ -5941,19 +5941,19 @@
         <v>1143.302006315977</v>
       </c>
       <c r="U22" t="n">
-        <v>1044.767672691447</v>
+        <v>857.8785732956595</v>
       </c>
       <c r="V22" t="n">
-        <v>965.677426908059</v>
+        <v>778.7883275122715</v>
       </c>
       <c r="W22" t="n">
-        <v>869.2361242350244</v>
+        <v>682.3470248392368</v>
       </c>
       <c r="X22" t="n">
-        <v>822.0449014137952</v>
+        <v>448.2667026222199</v>
       </c>
       <c r="Y22" t="n">
-        <v>785.8219396262263</v>
+        <v>412.043740834651</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1253.37231891977</v>
+        <v>1253.372318919769</v>
       </c>
       <c r="C23" t="n">
         <v>1047.085916818488</v>
       </c>
       <c r="D23" t="n">
-        <v>848.5338874309434</v>
+        <v>848.5338874309432</v>
       </c>
       <c r="E23" t="n">
-        <v>632.8394619432756</v>
+        <v>632.8394619432754</v>
       </c>
       <c r="F23" t="n">
-        <v>402.8341228690411</v>
+        <v>402.8341228690409</v>
       </c>
       <c r="G23" t="n">
         <v>177.1881940591683</v>
       </c>
       <c r="H23" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="I23" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J23" t="n">
         <v>243.2900750201779</v>
       </c>
       <c r="K23" t="n">
-        <v>680.532697970886</v>
+        <v>680.5326979708861</v>
       </c>
       <c r="L23" t="n">
-        <v>680.532697970886</v>
+        <v>680.5326979708861</v>
       </c>
       <c r="M23" t="n">
-        <v>680.532697970886</v>
+        <v>1255.016769776998</v>
       </c>
       <c r="N23" t="n">
-        <v>1089.504690968674</v>
+        <v>1829.50084158311</v>
       </c>
       <c r="O23" t="n">
-        <v>1633.204557761686</v>
+        <v>1829.50084158311</v>
       </c>
       <c r="P23" t="n">
-        <v>2069.86368857443</v>
+        <v>2266.159972395853</v>
       </c>
       <c r="Q23" t="n">
-        <v>2321.147764873178</v>
+        <v>2319.737830558682</v>
       </c>
       <c r="R23" t="n">
-        <v>2321.147764873178</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="S23" t="n">
-        <v>2321.14776487318</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="T23" t="n">
         <v>2287.284138111871</v>
@@ -6026,7 +6026,7 @@
         <v>2063.25301622607</v>
       </c>
       <c r="W23" t="n">
-        <v>1879.143080590146</v>
+        <v>1879.143080590145</v>
       </c>
       <c r="X23" t="n">
         <v>1676.57957491899</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>830.6456093677027</v>
+        <v>830.6456093677032</v>
       </c>
       <c r="C24" t="n">
-        <v>679.9913789277949</v>
+        <v>679.9913789277954</v>
       </c>
       <c r="D24" t="n">
-        <v>549.9024115492753</v>
+        <v>549.9024115492757</v>
       </c>
       <c r="E24" t="n">
-        <v>413.4559206601629</v>
+        <v>413.4559206601634</v>
       </c>
       <c r="F24" t="n">
-        <v>289.0241145432947</v>
+        <v>289.0241145432952</v>
       </c>
       <c r="G24" t="n">
-        <v>169.3001603338277</v>
+        <v>169.3001603338282</v>
       </c>
       <c r="H24" t="n">
-        <v>84.2464803752537</v>
+        <v>84.24648037525422</v>
       </c>
       <c r="I24" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J24" t="n">
-        <v>190.6382315549039</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="K24" t="n">
-        <v>563.5327337095342</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="L24" t="n">
-        <v>1118.572755652459</v>
+        <v>601.4629772403883</v>
       </c>
       <c r="M24" t="n">
-        <v>1575.186966387871</v>
+        <v>1001.798742498785</v>
       </c>
       <c r="N24" t="n">
         <v>1576.282814304897</v>
@@ -6087,31 +6087,31 @@
         <v>2044.763131158054</v>
       </c>
       <c r="Q24" t="n">
-        <v>2321.147764873178</v>
+        <v>2321.147764873179</v>
       </c>
       <c r="R24" t="n">
         <v>2318.0837340584</v>
       </c>
       <c r="S24" t="n">
-        <v>2189.391578223888</v>
+        <v>2189.391578223889</v>
       </c>
       <c r="T24" t="n">
         <v>2013.761532902869</v>
       </c>
       <c r="U24" t="n">
-        <v>1803.720485878791</v>
+        <v>1803.720485878792</v>
       </c>
       <c r="V24" t="n">
-        <v>1581.180484249858</v>
+        <v>1581.180484249859</v>
       </c>
       <c r="W24" t="n">
-        <v>1351.063238383145</v>
+        <v>1351.063238383146</v>
       </c>
       <c r="X24" t="n">
         <v>1161.756160733157</v>
       </c>
       <c r="Y24" t="n">
-        <v>982.4419438086641</v>
+        <v>982.4419438086645</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="C25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="D25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="E25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="F25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="G25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="H25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="I25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="J25" t="n">
-        <v>46.42295529746357</v>
+        <v>46.42295529746358</v>
       </c>
       <c r="K25" t="n">
-        <v>160.3210970648698</v>
+        <v>160.3210970648699</v>
       </c>
       <c r="L25" t="n">
         <v>365.4784668410306</v>
       </c>
       <c r="M25" t="n">
-        <v>595.0301425687045</v>
+        <v>595.0301425687046</v>
       </c>
       <c r="N25" t="n">
-        <v>820.4512455644754</v>
+        <v>820.4512455644756</v>
       </c>
       <c r="O25" t="n">
         <v>1022.163609556282</v>
@@ -6166,31 +6166,31 @@
         <v>1175.417513294277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1201.948725325979</v>
+        <v>1201.94872532598</v>
       </c>
       <c r="R25" t="n">
-        <v>1201.948725325979</v>
+        <v>1090.708455470252</v>
       </c>
       <c r="S25" t="n">
-        <v>1190.928857625692</v>
+        <v>892.7994883741767</v>
       </c>
       <c r="T25" t="n">
-        <v>1143.302006315976</v>
+        <v>845.1726370644616</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.767672691447</v>
+        <v>746.6383034399323</v>
       </c>
       <c r="V25" t="n">
-        <v>778.7883275122712</v>
+        <v>480.6589582607565</v>
       </c>
       <c r="W25" t="n">
-        <v>495.4579254434488</v>
+        <v>384.2176555877219</v>
       </c>
       <c r="X25" t="n">
-        <v>261.3776032264319</v>
+        <v>337.0264327664927</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.42295529746357</v>
+        <v>113.914371583136</v>
       </c>
     </row>
     <row r="26">
@@ -6215,49 +6215,49 @@
         <v>673.9876899246453</v>
       </c>
       <c r="G26" t="n">
-        <v>343.6576460570949</v>
+        <v>343.657646057095</v>
       </c>
       <c r="H26" t="n">
         <v>108.2082922377125</v>
       </c>
       <c r="I26" t="n">
-        <v>76.27661664581875</v>
+        <v>76.27661664581872</v>
       </c>
       <c r="J26" t="n">
         <v>273.1437363685331</v>
       </c>
       <c r="K26" t="n">
-        <v>710.3863593192413</v>
+        <v>710.3863593192414</v>
       </c>
       <c r="L26" t="n">
-        <v>1300.795432402236</v>
+        <v>1289.157649885141</v>
       </c>
       <c r="M26" t="n">
-        <v>1954.826308720209</v>
+        <v>1943.188526203113</v>
       </c>
       <c r="N26" t="n">
-        <v>2592.415606589029</v>
+        <v>2580.777824071934</v>
       </c>
       <c r="O26" t="n">
-        <v>3136.115473382042</v>
+        <v>3124.477690864946</v>
       </c>
       <c r="P26" t="n">
-        <v>3562.546755992189</v>
+        <v>3561.13682167769</v>
       </c>
       <c r="Q26" t="n">
-        <v>3813.830832290937</v>
+        <v>3812.420897976439</v>
       </c>
       <c r="R26" t="n">
-        <v>3813.830832290937</v>
+        <v>3813.830832290936</v>
       </c>
       <c r="S26" t="n">
-        <v>3743.826597563237</v>
+        <v>3743.826597563236</v>
       </c>
       <c r="T26" t="n">
-        <v>3605.278855744251</v>
+        <v>3605.27885574425</v>
       </c>
       <c r="U26" t="n">
-        <v>3431.781328701466</v>
+        <v>3431.781328701467</v>
       </c>
       <c r="V26" t="n">
         <v>3171.879503743095</v>
@@ -6294,28 +6294,28 @@
         <v>318.8777758916499</v>
       </c>
       <c r="G27" t="n">
-        <v>199.1538216821829</v>
+        <v>199.1538216821828</v>
       </c>
       <c r="H27" t="n">
-        <v>114.1001417236089</v>
+        <v>114.1001417236088</v>
       </c>
       <c r="I27" t="n">
-        <v>76.27661664581875</v>
+        <v>76.27661664581872</v>
       </c>
       <c r="J27" t="n">
         <v>220.491892903259</v>
       </c>
       <c r="K27" t="n">
-        <v>593.3863950578894</v>
+        <v>220.491892903259</v>
       </c>
       <c r="L27" t="n">
-        <v>1148.426417000814</v>
+        <v>299.0216801886124</v>
       </c>
       <c r="M27" t="n">
-        <v>1148.426417000814</v>
+        <v>1010.200041971585</v>
       </c>
       <c r="N27" t="n">
-        <v>1149.52226491784</v>
+        <v>1011.295889888611</v>
       </c>
       <c r="O27" t="n">
         <v>1606.136475653252</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>585.1388993253456</v>
+        <v>585.1388993253461</v>
       </c>
       <c r="C28" t="n">
-        <v>497.1387657294453</v>
+        <v>497.1387657294454</v>
       </c>
       <c r="D28" t="n">
-        <v>423.7106369700702</v>
+        <v>423.7106369700703</v>
       </c>
       <c r="E28" t="n">
-        <v>350.3568091673828</v>
+        <v>350.3568091673829</v>
       </c>
       <c r="F28" t="n">
-        <v>275.2358587184659</v>
+        <v>275.235858718466</v>
       </c>
       <c r="G28" t="n">
-        <v>189.4683660153598</v>
+        <v>189.4683660153599</v>
       </c>
       <c r="H28" t="n">
         <v>118.6982735734431</v>
       </c>
       <c r="I28" t="n">
-        <v>76.27661664581875</v>
+        <v>76.27661664581872</v>
       </c>
       <c r="J28" t="n">
-        <v>146.5833042226618</v>
+        <v>146.5833042226623</v>
       </c>
       <c r="K28" t="n">
-        <v>341.0505511398501</v>
+        <v>341.0505511398503</v>
       </c>
       <c r="L28" t="n">
-        <v>626.7770260657926</v>
+        <v>626.7770260657928</v>
       </c>
       <c r="M28" t="n">
-        <v>936.8978069432483</v>
+        <v>936.8978069432484</v>
       </c>
       <c r="N28" t="n">
         <v>1242.888015088801</v>
@@ -6409,7 +6409,7 @@
         <v>1837.057524782033</v>
       </c>
       <c r="S28" t="n">
-        <v>1721.353542024067</v>
+        <v>1721.353542024068</v>
       </c>
       <c r="T28" t="n">
         <v>1569.042575656675</v>
@@ -6418,16 +6418,16 @@
         <v>1365.824126974468</v>
       </c>
       <c r="V28" t="n">
-        <v>1182.049766133402</v>
+        <v>1182.049766133403</v>
       </c>
       <c r="W28" t="n">
-        <v>980.92434840269</v>
+        <v>980.9243484026905</v>
       </c>
       <c r="X28" t="n">
-        <v>829.0490105237833</v>
+        <v>829.0490105237837</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.1419336785368</v>
+        <v>688.1419336785373</v>
       </c>
     </row>
     <row r="29">
@@ -6440,58 +6440,58 @@
         <v>1943.262346206084</v>
       </c>
       <c r="C29" t="n">
-        <v>1632.291829047125</v>
+        <v>1632.291829047124</v>
       </c>
       <c r="D29" t="n">
-        <v>1329.055684601903</v>
+        <v>1329.055684601902</v>
       </c>
       <c r="E29" t="n">
         <v>1008.677144056557</v>
       </c>
       <c r="F29" t="n">
-        <v>673.9876899246451</v>
+        <v>673.9876899246449</v>
       </c>
       <c r="G29" t="n">
-        <v>343.6576460570948</v>
+        <v>343.6576460570946</v>
       </c>
       <c r="H29" t="n">
         <v>108.2082922377125</v>
       </c>
       <c r="I29" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J29" t="n">
-        <v>273.143736368533</v>
+        <v>261.5059538514391</v>
       </c>
       <c r="K29" t="n">
-        <v>700.1585111166436</v>
+        <v>698.7485768021473</v>
       </c>
       <c r="L29" t="n">
-        <v>1290.567584199639</v>
+        <v>1289.157649885142</v>
       </c>
       <c r="M29" t="n">
-        <v>1944.598460517611</v>
+        <v>1943.188526203115</v>
       </c>
       <c r="N29" t="n">
-        <v>2582.187758386432</v>
+        <v>2580.777824071935</v>
       </c>
       <c r="O29" t="n">
-        <v>3125.887625179444</v>
+        <v>3124.477690864948</v>
       </c>
       <c r="P29" t="n">
-        <v>3562.546755992188</v>
+        <v>3561.136821677691</v>
       </c>
       <c r="Q29" t="n">
-        <v>3813.830832290936</v>
+        <v>3812.42089797644</v>
       </c>
       <c r="R29" t="n">
-        <v>3813.830832290936</v>
+        <v>3813.830832290937</v>
       </c>
       <c r="S29" t="n">
-        <v>3743.826597563236</v>
+        <v>3743.826597563237</v>
       </c>
       <c r="T29" t="n">
-        <v>3605.27885574425</v>
+        <v>3605.278855744251</v>
       </c>
       <c r="U29" t="n">
         <v>3431.781328701466</v>
@@ -6503,10 +6503,10 @@
         <v>2883.085453049493</v>
       </c>
       <c r="X29" t="n">
-        <v>2575.83783232066</v>
+        <v>2575.837832320659</v>
       </c>
       <c r="Y29" t="n">
-        <v>2261.552107579371</v>
+        <v>2261.55210757937</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>114.1001417236089</v>
       </c>
       <c r="I30" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J30" t="n">
-        <v>76.27661664581872</v>
+        <v>220.491892903259</v>
       </c>
       <c r="K30" t="n">
-        <v>76.27661664581872</v>
+        <v>593.3863950578896</v>
       </c>
       <c r="L30" t="n">
-        <v>631.3166385887436</v>
+        <v>1148.426417000814</v>
       </c>
       <c r="M30" t="n">
-        <v>1342.495000371716</v>
+        <v>1859.604778783787</v>
       </c>
       <c r="N30" t="n">
-        <v>2083.887211224926</v>
+        <v>1860.700626700813</v>
       </c>
       <c r="O30" t="n">
-        <v>2351.001426221534</v>
+        <v>1860.700626700813</v>
       </c>
       <c r="P30" t="n">
-        <v>2351.001426221534</v>
+        <v>2329.18094355397</v>
       </c>
       <c r="Q30" t="n">
         <v>2351.001426221534</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>585.138899325346</v>
+        <v>585.1388993253461</v>
       </c>
       <c r="C31" t="n">
         <v>497.1387657294454</v>
@@ -6613,10 +6613,10 @@
         <v>189.4683660153598</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6982735734431</v>
+        <v>118.6982735734432</v>
       </c>
       <c r="I31" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J31" t="n">
         <v>146.5833042226623</v>
@@ -6637,13 +6637,13 @@
         <v>1525.169484230389</v>
       </c>
       <c r="P31" t="n">
-        <v>1758.992493118167</v>
+        <v>1758.992493118166</v>
       </c>
       <c r="Q31" t="n">
-        <v>1866.092810299651</v>
+        <v>1866.09281029965</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.057524782034</v>
+        <v>1837.057524782033</v>
       </c>
       <c r="S31" t="n">
         <v>1721.353542024068</v>
@@ -6652,19 +6652,19 @@
         <v>1569.042575656675</v>
       </c>
       <c r="U31" t="n">
-        <v>1365.824126974468</v>
+        <v>1365.824126974469</v>
       </c>
       <c r="V31" t="n">
-        <v>1182.049766133402</v>
+        <v>1182.049766133403</v>
       </c>
       <c r="W31" t="n">
-        <v>980.9243484026903</v>
+        <v>980.9243484026907</v>
       </c>
       <c r="X31" t="n">
-        <v>829.0490105237835</v>
+        <v>829.049010523784</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.141933678537</v>
+        <v>688.1419336785373</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1943.262346206083</v>
+        <v>1943.262346206084</v>
       </c>
       <c r="C32" t="n">
-        <v>1632.291829047123</v>
+        <v>1632.291829047124</v>
       </c>
       <c r="D32" t="n">
-        <v>1329.055684601901</v>
+        <v>1329.055684601902</v>
       </c>
       <c r="E32" t="n">
-        <v>1008.677144056556</v>
+        <v>1008.677144056557</v>
       </c>
       <c r="F32" t="n">
-        <v>673.987689924645</v>
+        <v>673.9876899246448</v>
       </c>
       <c r="G32" t="n">
-        <v>343.6576460570946</v>
+        <v>343.6576460570949</v>
       </c>
       <c r="H32" t="n">
         <v>108.2082922377125</v>
       </c>
       <c r="I32" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J32" t="n">
-        <v>273.143736368533</v>
+        <v>273.1437363685331</v>
       </c>
       <c r="K32" t="n">
-        <v>710.3863593192411</v>
+        <v>710.3863593192414</v>
       </c>
       <c r="L32" t="n">
         <v>1300.795432402236</v>
@@ -6713,37 +6713,37 @@
         <v>2592.415606589029</v>
       </c>
       <c r="O32" t="n">
-        <v>3136.115473382042</v>
+        <v>3124.477690864947</v>
       </c>
       <c r="P32" t="n">
-        <v>3572.774604194785</v>
+        <v>3561.136821677691</v>
       </c>
       <c r="Q32" t="n">
-        <v>3812.420897976439</v>
+        <v>3812.42089797644</v>
       </c>
       <c r="R32" t="n">
-        <v>3813.830832290936</v>
+        <v>3813.830832290937</v>
       </c>
       <c r="S32" t="n">
-        <v>3743.826597563236</v>
+        <v>3743.826597563237</v>
       </c>
       <c r="T32" t="n">
-        <v>3605.27885574425</v>
+        <v>3605.278855744251</v>
       </c>
       <c r="U32" t="n">
         <v>3431.781328701466</v>
       </c>
       <c r="V32" t="n">
-        <v>3171.879503743094</v>
+        <v>3171.879503743095</v>
       </c>
       <c r="W32" t="n">
-        <v>2883.085453049492</v>
+        <v>2883.085453049493</v>
       </c>
       <c r="X32" t="n">
-        <v>2575.837832320658</v>
+        <v>2575.837832320659</v>
       </c>
       <c r="Y32" t="n">
-        <v>2261.552107579369</v>
+        <v>2261.55210757937</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>114.1001417236089</v>
       </c>
       <c r="I33" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J33" t="n">
-        <v>76.27661664581872</v>
+        <v>220.491892903259</v>
       </c>
       <c r="K33" t="n">
-        <v>76.27661664581872</v>
+        <v>220.491892903259</v>
       </c>
       <c r="L33" t="n">
-        <v>303.5902678207101</v>
+        <v>775.5319148461838</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.768629603683</v>
+        <v>1010.200041971585</v>
       </c>
       <c r="N33" t="n">
-        <v>1756.160840456892</v>
+        <v>1011.295889888611</v>
       </c>
       <c r="O33" t="n">
-        <v>2351.001426221534</v>
+        <v>1606.136475653252</v>
       </c>
       <c r="P33" t="n">
-        <v>2351.001426221534</v>
+        <v>2074.616792506409</v>
       </c>
       <c r="Q33" t="n">
         <v>2351.001426221534</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>585.1388993253464</v>
+        <v>585.1388993253461</v>
       </c>
       <c r="C34" t="n">
-        <v>497.1387657294457</v>
+        <v>497.1387657294454</v>
       </c>
       <c r="D34" t="n">
-        <v>423.7106369700706</v>
+        <v>423.7106369700703</v>
       </c>
       <c r="E34" t="n">
-        <v>350.3568091673832</v>
+        <v>350.3568091673829</v>
       </c>
       <c r="F34" t="n">
-        <v>275.2358587184665</v>
+        <v>275.235858718466</v>
       </c>
       <c r="G34" t="n">
-        <v>189.4683660153603</v>
+        <v>189.4683660153598</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6982735734437</v>
+        <v>118.6982735734431</v>
       </c>
       <c r="I34" t="n">
-        <v>76.27661664581872</v>
+        <v>76.27661664581875</v>
       </c>
       <c r="J34" t="n">
-        <v>146.5833042226625</v>
+        <v>146.5833042226623</v>
       </c>
       <c r="K34" t="n">
-        <v>341.0505511398508</v>
+        <v>341.0505511398503</v>
       </c>
       <c r="L34" t="n">
-        <v>626.7770260657933</v>
+        <v>626.7770260657923</v>
       </c>
       <c r="M34" t="n">
-        <v>936.8978069432488</v>
+        <v>936.897806943248</v>
       </c>
       <c r="N34" t="n">
         <v>1242.888015088801</v>
       </c>
       <c r="O34" t="n">
-        <v>1525.16948423039</v>
+        <v>1525.169484230389</v>
       </c>
       <c r="P34" t="n">
-        <v>1758.992493118167</v>
+        <v>1758.992493118166</v>
       </c>
       <c r="Q34" t="n">
-        <v>1866.092810299651</v>
+        <v>1866.09281029965</v>
       </c>
       <c r="R34" t="n">
         <v>1837.057524782033</v>
       </c>
       <c r="S34" t="n">
-        <v>1721.353542024068</v>
+        <v>1721.353542024067</v>
       </c>
       <c r="T34" t="n">
-        <v>1569.042575656676</v>
+        <v>1569.042575656675</v>
       </c>
       <c r="U34" t="n">
-        <v>1365.824126974469</v>
+        <v>1365.824126974468</v>
       </c>
       <c r="V34" t="n">
-        <v>1182.049766133403</v>
+        <v>1182.049766133402</v>
       </c>
       <c r="W34" t="n">
-        <v>980.924348402691</v>
+        <v>980.9243484026903</v>
       </c>
       <c r="X34" t="n">
-        <v>829.0490105237841</v>
+        <v>829.0490105237839</v>
       </c>
       <c r="Y34" t="n">
-        <v>688.1419336785375</v>
+        <v>688.1419336785373</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>1229.686103045716</v>
       </c>
       <c r="D35" t="n">
-        <v>996.4541933281942</v>
+        <v>996.4541933281937</v>
       </c>
       <c r="E35" t="n">
-        <v>746.079887510549</v>
+        <v>746.0798875105486</v>
       </c>
       <c r="F35" t="n">
-        <v>481.3946681063371</v>
+        <v>481.3946681063367</v>
       </c>
       <c r="G35" t="n">
         <v>221.0688589664866</v>
       </c>
       <c r="H35" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="I35" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="J35" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="K35" t="n">
-        <v>55.62373987480451</v>
+        <v>492.8663628255127</v>
       </c>
       <c r="L35" t="n">
-        <v>646.0328129577995</v>
+        <v>800.2136781274426</v>
       </c>
       <c r="M35" t="n">
-        <v>1300.063689275772</v>
+        <v>1454.244554445415</v>
       </c>
       <c r="N35" t="n">
-        <v>1937.652987144593</v>
+        <v>2091.833852314236</v>
       </c>
       <c r="O35" t="n">
-        <v>2481.352853937605</v>
+        <v>2091.833852314236</v>
       </c>
       <c r="P35" t="n">
-        <v>2779.777059425729</v>
+        <v>2528.492983126979</v>
       </c>
       <c r="Q35" t="n">
-        <v>2779.777059425729</v>
+        <v>2779.777059425728</v>
       </c>
       <c r="R35" t="n">
-        <v>2781.186993740226</v>
+        <v>2781.186993740225</v>
       </c>
       <c r="S35" t="n">
-        <v>2781.186993740226</v>
+        <v>2781.186993740225</v>
       </c>
       <c r="T35" t="n">
         <v>2712.64348664894</v>
@@ -6980,7 +6980,7 @@
         <v>1963.21940213615</v>
       </c>
       <c r="Y35" t="n">
-        <v>1718.937912122562</v>
+        <v>1718.937912122561</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.5009449111686</v>
       </c>
       <c r="H36" t="n">
-        <v>93.44726495259464</v>
+        <v>93.44726495259462</v>
       </c>
       <c r="I36" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="J36" t="n">
         <v>199.8390161322448</v>
       </c>
       <c r="K36" t="n">
-        <v>572.7335182868753</v>
+        <v>572.7335182868752</v>
       </c>
       <c r="L36" t="n">
-        <v>1046.068334818147</v>
+        <v>572.7335182868752</v>
       </c>
       <c r="M36" t="n">
-        <v>1734.412115768853</v>
+        <v>572.7335182868752</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.507963685878</v>
+        <v>1261.077299237581</v>
       </c>
       <c r="O36" t="n">
-        <v>2330.348549450519</v>
+        <v>1855.917885002222</v>
       </c>
       <c r="P36" t="n">
-        <v>2330.348549450519</v>
+        <v>2053.963915735395</v>
       </c>
       <c r="Q36" t="n">
         <v>2330.348549450519</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.038957260506</v>
+        <v>254.2481763263162</v>
       </c>
       <c r="C37" t="n">
-        <v>84.04305839230558</v>
+        <v>84.04305839230541</v>
       </c>
       <c r="D37" t="n">
-        <v>80.61916436063068</v>
+        <v>80.61916436063053</v>
       </c>
       <c r="E37" t="n">
-        <v>77.26957128564355</v>
+        <v>77.26957128564344</v>
       </c>
       <c r="F37" t="n">
-        <v>72.15285556442686</v>
+        <v>72.15285556442677</v>
       </c>
       <c r="G37" t="n">
-        <v>56.38959758902091</v>
+        <v>56.38959758902086</v>
       </c>
       <c r="H37" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="I37" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="J37" t="n">
-        <v>55.62373987480451</v>
+        <v>55.6237398748045</v>
       </c>
       <c r="K37" t="n">
         <v>169.5218816422108</v>
       </c>
       <c r="L37" t="n">
-        <v>374.6792514183716</v>
+        <v>374.6792514183715</v>
       </c>
       <c r="M37" t="n">
-        <v>604.2309271460456</v>
+        <v>604.2309271460455</v>
       </c>
       <c r="N37" t="n">
-        <v>829.6520301418166</v>
+        <v>829.6520301418163</v>
       </c>
       <c r="O37" t="n">
         <v>1031.364394133623</v>
@@ -7114,31 +7114,31 @@
         <v>1184.618297871618</v>
       </c>
       <c r="Q37" t="n">
-        <v>1211.149509903321</v>
+        <v>1211.14950990332</v>
       </c>
       <c r="R37" t="n">
-        <v>1211.149509903321</v>
+        <v>1099.909240047593</v>
       </c>
       <c r="S37" t="n">
-        <v>1013.240542807245</v>
+        <v>1054.209492017328</v>
       </c>
       <c r="T37" t="n">
-        <v>778.7245921017422</v>
+        <v>971.9027603776354</v>
       </c>
       <c r="U37" t="n">
-        <v>645.5103781472355</v>
+        <v>837.1214494027475</v>
       </c>
       <c r="V37" t="n">
-        <v>531.7402520338701</v>
+        <v>571.1421042235718</v>
       </c>
       <c r="W37" t="n">
-        <v>287.8117021547498</v>
+        <v>440.0209212205598</v>
       </c>
       <c r="X37" t="n">
-        <v>205.9405990035432</v>
+        <v>358.1498180693533</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.0377568859969</v>
+        <v>287.2469759518071</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>481.3946681063367</v>
       </c>
       <c r="G38" t="n">
-        <v>221.0688589664865</v>
+        <v>221.0688589664866</v>
       </c>
       <c r="H38" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="I38" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="J38" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="K38" t="n">
-        <v>492.8663628255127</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="L38" t="n">
-        <v>1083.275435908508</v>
+        <v>256.5138113344324</v>
       </c>
       <c r="M38" t="n">
-        <v>1083.275435908508</v>
+        <v>910.5446876524049</v>
       </c>
       <c r="N38" t="n">
-        <v>1720.864733777328</v>
+        <v>1548.133985521225</v>
       </c>
       <c r="O38" t="n">
-        <v>2093.243786628734</v>
+        <v>2091.833852314238</v>
       </c>
       <c r="P38" t="n">
-        <v>2529.902917441477</v>
+        <v>2528.492983126981</v>
       </c>
       <c r="Q38" t="n">
-        <v>2781.186993740226</v>
+        <v>2779.77705942573</v>
       </c>
       <c r="R38" t="n">
-        <v>2781.186993740226</v>
+        <v>2781.186993740227</v>
       </c>
       <c r="S38" t="n">
         <v>2781.186993740226</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>839.8463939450436</v>
+        <v>839.8463939450437</v>
       </c>
       <c r="C39" t="n">
-        <v>689.1921635051358</v>
+        <v>689.1921635051359</v>
       </c>
       <c r="D39" t="n">
-        <v>559.1031961266161</v>
+        <v>559.1031961266162</v>
       </c>
       <c r="E39" t="n">
-        <v>422.6567052375038</v>
+        <v>422.6567052375039</v>
       </c>
       <c r="F39" t="n">
         <v>298.2248991206357</v>
       </c>
       <c r="G39" t="n">
-        <v>178.5009449111686</v>
+        <v>178.5009449111687</v>
       </c>
       <c r="H39" t="n">
-        <v>93.44726495259464</v>
+        <v>93.44726495259468</v>
       </c>
       <c r="I39" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="J39" t="n">
-        <v>55.62373987480451</v>
+        <v>199.8390161322448</v>
       </c>
       <c r="K39" t="n">
-        <v>55.62373987480451</v>
+        <v>199.8390161322448</v>
       </c>
       <c r="L39" t="n">
-        <v>301.2033842498651</v>
+        <v>199.8390161322448</v>
       </c>
       <c r="M39" t="n">
-        <v>989.5471652005709</v>
+        <v>888.1827970829511</v>
       </c>
       <c r="N39" t="n">
-        <v>990.6430131175965</v>
+        <v>1459.123329970754</v>
       </c>
       <c r="O39" t="n">
-        <v>1585.483598882238</v>
+        <v>2053.963915735395</v>
       </c>
       <c r="P39" t="n">
         <v>2053.963915735395</v>
@@ -7296,7 +7296,7 @@
         <v>1170.956945310498</v>
       </c>
       <c r="Y39" t="n">
-        <v>991.6427283860049</v>
+        <v>991.642728386005</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.038957260506</v>
+        <v>102.0389572605059</v>
       </c>
       <c r="C40" t="n">
-        <v>84.04305839230558</v>
+        <v>84.04305839230545</v>
       </c>
       <c r="D40" t="n">
-        <v>80.61916436063068</v>
+        <v>80.61916436063058</v>
       </c>
       <c r="E40" t="n">
-        <v>77.26957128564355</v>
+        <v>77.26957128564348</v>
       </c>
       <c r="F40" t="n">
-        <v>72.15285556442686</v>
+        <v>72.15285556442682</v>
       </c>
       <c r="G40" t="n">
-        <v>56.38959758902091</v>
+        <v>56.3895975890209</v>
       </c>
       <c r="H40" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="I40" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="J40" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480454</v>
       </c>
       <c r="K40" t="n">
         <v>169.5218816422108</v>
@@ -7339,10 +7339,10 @@
         <v>374.6792514183716</v>
       </c>
       <c r="M40" t="n">
-        <v>604.2309271460456</v>
+        <v>604.2309271460455</v>
       </c>
       <c r="N40" t="n">
-        <v>829.6520301418166</v>
+        <v>829.6520301418163</v>
       </c>
       <c r="O40" t="n">
         <v>1031.364394133623</v>
@@ -7351,31 +7351,31 @@
         <v>1184.618297871618</v>
       </c>
       <c r="Q40" t="n">
-        <v>1211.149509903321</v>
+        <v>1211.14950990332</v>
       </c>
       <c r="R40" t="n">
-        <v>1211.149509903321</v>
+        <v>1099.909240047593</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.449761873055</v>
+        <v>1054.209492017328</v>
       </c>
       <c r="T40" t="n">
-        <v>1083.143030233363</v>
+        <v>970.3356633572542</v>
       </c>
       <c r="U40" t="n">
-        <v>797.7195972130459</v>
+        <v>837.1214494027477</v>
       </c>
       <c r="V40" t="n">
-        <v>531.7402520338701</v>
+        <v>723.3513232893822</v>
       </c>
       <c r="W40" t="n">
-        <v>287.8117021547498</v>
+        <v>440.0209212205599</v>
       </c>
       <c r="X40" t="n">
-        <v>205.9405990035432</v>
+        <v>358.1498180693534</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.0377568859969</v>
+        <v>287.2469759518071</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1470.652385476975</v>
+        <v>1470.652385476973</v>
       </c>
       <c r="C41" t="n">
-        <v>1229.686103045716</v>
+        <v>1229.686103045714</v>
       </c>
       <c r="D41" t="n">
-        <v>996.4541933281936</v>
+        <v>996.4541933281923</v>
       </c>
       <c r="E41" t="n">
-        <v>746.0798875105485</v>
+        <v>746.079887510547</v>
       </c>
       <c r="F41" t="n">
-        <v>481.3946681063367</v>
+        <v>481.3946681063355</v>
       </c>
       <c r="G41" t="n">
-        <v>221.0688589664861</v>
+        <v>221.0688589664866</v>
       </c>
       <c r="H41" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="I41" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J41" t="n">
-        <v>55.62373987480451</v>
+        <v>252.4908595975188</v>
       </c>
       <c r="K41" t="n">
-        <v>55.62373987480451</v>
+        <v>689.7334825482269</v>
       </c>
       <c r="L41" t="n">
-        <v>509.2078219476762</v>
+        <v>689.7334825482269</v>
       </c>
       <c r="M41" t="n">
-        <v>1163.238698265649</v>
+        <v>1343.764358866199</v>
       </c>
       <c r="N41" t="n">
-        <v>1800.827996134469</v>
+        <v>1981.35365673502</v>
       </c>
       <c r="O41" t="n">
-        <v>2344.527862927482</v>
+        <v>2091.833852314235</v>
       </c>
       <c r="P41" t="n">
-        <v>2781.186993740225</v>
+        <v>2528.492983126979</v>
       </c>
       <c r="Q41" t="n">
-        <v>2781.186993740225</v>
+        <v>2779.777059425727</v>
       </c>
       <c r="R41" t="n">
-        <v>2781.186993740225</v>
+        <v>2781.186993740224</v>
       </c>
       <c r="S41" t="n">
-        <v>2781.186993740225</v>
+        <v>2781.186993740224</v>
       </c>
       <c r="T41" t="n">
-        <v>2712.64348664894</v>
+        <v>2712.643486648939</v>
       </c>
       <c r="U41" t="n">
-        <v>2609.150194333856</v>
+        <v>2609.150194333854</v>
       </c>
       <c r="V41" t="n">
-        <v>2419.252604103185</v>
+        <v>2419.252604103183</v>
       </c>
       <c r="W41" t="n">
-        <v>2200.462788137283</v>
+        <v>2200.462788137281</v>
       </c>
       <c r="X41" t="n">
-        <v>1963.21940213615</v>
+        <v>1963.219402136148</v>
       </c>
       <c r="Y41" t="n">
-        <v>1718.937912122561</v>
+        <v>1718.93791212256</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.5009449111686</v>
       </c>
       <c r="H42" t="n">
-        <v>93.44726495259464</v>
+        <v>93.44726495259462</v>
       </c>
       <c r="I42" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J42" t="n">
-        <v>199.8390161322448</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="K42" t="n">
-        <v>572.7335182868752</v>
+        <v>358.8204017844672</v>
       </c>
       <c r="L42" t="n">
-        <v>1127.7735402298</v>
+        <v>358.8204017844672</v>
       </c>
       <c r="M42" t="n">
-        <v>1734.412115768853</v>
+        <v>1047.164182735173</v>
       </c>
       <c r="N42" t="n">
         <v>1735.507963685878</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>519.2647622682352</v>
+        <v>102.0389572605058</v>
       </c>
       <c r="C43" t="n">
-        <v>501.2688634000348</v>
+        <v>84.0430583923054</v>
       </c>
       <c r="D43" t="n">
-        <v>497.84496936836</v>
+        <v>80.61916436063052</v>
       </c>
       <c r="E43" t="n">
-        <v>342.2861572275625</v>
+        <v>77.26957128564342</v>
       </c>
       <c r="F43" t="n">
-        <v>184.9602224405354</v>
+        <v>72.15285556442676</v>
       </c>
       <c r="G43" t="n">
-        <v>169.1969644651295</v>
+        <v>56.38959758902084</v>
       </c>
       <c r="H43" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="I43" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J43" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="K43" t="n">
         <v>169.5218816422108</v>
@@ -7594,25 +7594,25 @@
         <v>1211.14950990332</v>
       </c>
       <c r="S43" t="n">
-        <v>1165.449761873055</v>
+        <v>1013.240542807245</v>
       </c>
       <c r="T43" t="n">
-        <v>1083.143030233363</v>
+        <v>930.9338111675523</v>
       </c>
       <c r="U43" t="n">
-        <v>949.9288162788563</v>
+        <v>645.5103781472353</v>
       </c>
       <c r="V43" t="n">
-        <v>836.158690165491</v>
+        <v>418.9328851577615</v>
       </c>
       <c r="W43" t="n">
-        <v>705.037507162479</v>
+        <v>287.8117021547495</v>
       </c>
       <c r="X43" t="n">
-        <v>623.1664040112724</v>
+        <v>205.940599003543</v>
       </c>
       <c r="Y43" t="n">
-        <v>552.2635618937262</v>
+        <v>135.0377568859967</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1470.652385476975</v>
+        <v>1470.652385476974</v>
       </c>
       <c r="C44" t="n">
-        <v>1229.686103045716</v>
+        <v>1229.686103045714</v>
       </c>
       <c r="D44" t="n">
-        <v>996.4541933281937</v>
+        <v>996.4541933281923</v>
       </c>
       <c r="E44" t="n">
-        <v>746.0798875105486</v>
+        <v>746.0798875105472</v>
       </c>
       <c r="F44" t="n">
-        <v>481.3946681063367</v>
+        <v>481.3946681063353</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0688589664866</v>
+        <v>221.0688589664856</v>
       </c>
       <c r="H44" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="I44" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J44" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="K44" t="n">
-        <v>55.62373987480451</v>
+        <v>492.8663628255126</v>
       </c>
       <c r="L44" t="n">
-        <v>646.0328129577995</v>
+        <v>1083.275435908507</v>
       </c>
       <c r="M44" t="n">
-        <v>1300.063689275772</v>
+        <v>1083.275435908507</v>
       </c>
       <c r="N44" t="n">
-        <v>1937.652987144593</v>
+        <v>1720.864733777328</v>
       </c>
       <c r="O44" t="n">
-        <v>2481.352853937605</v>
+        <v>2264.56460057034</v>
       </c>
       <c r="P44" t="n">
-        <v>2781.186993740225</v>
+        <v>2528.492983126979</v>
       </c>
       <c r="Q44" t="n">
-        <v>2781.186993740225</v>
+        <v>2779.777059425727</v>
       </c>
       <c r="R44" t="n">
-        <v>2781.186993740225</v>
+        <v>2781.186993740224</v>
       </c>
       <c r="S44" t="n">
-        <v>2781.186993740225</v>
+        <v>2781.186993740224</v>
       </c>
       <c r="T44" t="n">
-        <v>2712.64348664894</v>
+        <v>2712.643486648939</v>
       </c>
       <c r="U44" t="n">
-        <v>2609.150194333856</v>
+        <v>2609.150194333854</v>
       </c>
       <c r="V44" t="n">
-        <v>2419.252604103185</v>
+        <v>2419.252604103183</v>
       </c>
       <c r="W44" t="n">
-        <v>2200.462788137283</v>
+        <v>2200.462788137282</v>
       </c>
       <c r="X44" t="n">
-        <v>1963.21940213615</v>
+        <v>1963.219402136149</v>
       </c>
       <c r="Y44" t="n">
-        <v>1718.937912122561</v>
+        <v>1718.93791212256</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>178.5009449111686</v>
       </c>
       <c r="H45" t="n">
-        <v>93.44726495259464</v>
+        <v>93.44726495259462</v>
       </c>
       <c r="I45" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J45" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="K45" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="L45" t="n">
-        <v>358.8204017844665</v>
+        <v>208.7960369808266</v>
       </c>
       <c r="M45" t="n">
-        <v>1047.164182735172</v>
+        <v>897.1398179315321</v>
       </c>
       <c r="N45" t="n">
-        <v>1735.507963685878</v>
+        <v>1585.483598882238</v>
       </c>
       <c r="O45" t="n">
-        <v>2330.348549450519</v>
+        <v>1585.483598882238</v>
       </c>
       <c r="P45" t="n">
-        <v>2330.348549450519</v>
+        <v>2053.963915735395</v>
       </c>
       <c r="Q45" t="n">
         <v>2330.348549450519</v>
@@ -7783,40 +7783,40 @@
         <v>102.0389572605058</v>
       </c>
       <c r="C46" t="n">
-        <v>84.04305839230543</v>
+        <v>84.0430583923054</v>
       </c>
       <c r="D46" t="n">
-        <v>80.61916436063055</v>
+        <v>80.61916436063052</v>
       </c>
       <c r="E46" t="n">
-        <v>77.26957128564345</v>
+        <v>77.26957128564342</v>
       </c>
       <c r="F46" t="n">
-        <v>72.15285556442679</v>
+        <v>72.15285556442676</v>
       </c>
       <c r="G46" t="n">
-        <v>56.38959758902087</v>
+        <v>56.38959758902084</v>
       </c>
       <c r="H46" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="I46" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="J46" t="n">
-        <v>55.62373987480451</v>
+        <v>55.62373987480449</v>
       </c>
       <c r="K46" t="n">
-        <v>169.5218816422108</v>
+        <v>169.5218816422107</v>
       </c>
       <c r="L46" t="n">
         <v>374.6792514183715</v>
       </c>
       <c r="M46" t="n">
-        <v>604.2309271460455</v>
+        <v>604.2309271460454</v>
       </c>
       <c r="N46" t="n">
-        <v>829.6520301418163</v>
+        <v>829.6520301418162</v>
       </c>
       <c r="O46" t="n">
         <v>1031.364394133623</v>
@@ -7828,25 +7828,25 @@
         <v>1211.14950990332</v>
       </c>
       <c r="R46" t="n">
-        <v>1211.14950990332</v>
+        <v>1099.909240047593</v>
       </c>
       <c r="S46" t="n">
-        <v>1013.240542807245</v>
+        <v>1054.209492017328</v>
       </c>
       <c r="T46" t="n">
-        <v>778.724592101742</v>
+        <v>971.9027603776354</v>
       </c>
       <c r="U46" t="n">
-        <v>532.7030112711268</v>
+        <v>686.4793273573184</v>
       </c>
       <c r="V46" t="n">
-        <v>418.9328851577615</v>
+        <v>572.709201243953</v>
       </c>
       <c r="W46" t="n">
-        <v>287.8117021547495</v>
+        <v>289.3787991751306</v>
       </c>
       <c r="X46" t="n">
-        <v>205.940599003543</v>
+        <v>207.5076960239241</v>
       </c>
       <c r="Y46" t="n">
         <v>135.0377568859967</v>
@@ -8690,16 +8690,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>64.00762850929151</v>
       </c>
       <c r="L11" t="n">
-        <v>55.17869360476841</v>
+        <v>328.22981464304</v>
       </c>
       <c r="M11" t="n">
-        <v>40.60386344278592</v>
+        <v>40.60386344278584</v>
       </c>
       <c r="N11" t="n">
-        <v>618.5185494941006</v>
+        <v>618.5185494941012</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8708,10 +8708,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.0274674412458</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>51.03001891140111</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>35.90465645211712</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>588.4248590693325</v>
+        <v>111.4069351918567</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>579.1800241303906</v>
       </c>
       <c r="O12" t="n">
-        <v>367.7281170795942</v>
+        <v>593.8630827600529</v>
       </c>
       <c r="P12" t="n">
-        <v>23.58947781248654</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>48.54417117587985</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>64.93504318084486</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>64.00762850929156</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>635.4656348230631</v>
+        <v>635.4656348230629</v>
       </c>
       <c r="M14" t="n">
-        <v>620.8908046610807</v>
+        <v>620.8908046610804</v>
       </c>
       <c r="N14" t="n">
-        <v>618.5185494941006</v>
+        <v>38.23160827580585</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>286.223076591914</v>
       </c>
       <c r="P14" t="n">
-        <v>68.5853752036985</v>
+        <v>60.93615564373131</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.38908613778638</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9009,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>459.4504729454175</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>8.137917851037784</v>
+        <v>8.137917851037727</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>579.1800241303899</v>
       </c>
       <c r="O15" t="n">
-        <v>593.8630827600523</v>
+        <v>13.57614154175749</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>378.8483704382271</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>64.93504318084486</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>635.4656348230631</v>
+        <v>55.17869360476834</v>
       </c>
       <c r="M17" t="n">
-        <v>40.60386344278592</v>
+        <v>620.8908046610806</v>
       </c>
       <c r="N17" t="n">
-        <v>618.5185494941006</v>
+        <v>564.515642607797</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>207.2131013202678</v>
+        <v>60.93615564373131</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.38908613778638</v>
+        <v>77.38908613778632</v>
       </c>
       <c r="R17" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>353.4828900808425</v>
       </c>
       <c r="M18" t="n">
-        <v>8.137917851037784</v>
+        <v>588.4248590693323</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>579.1800241303899</v>
       </c>
       <c r="O18" t="n">
-        <v>474.8026170320735</v>
+        <v>13.57614154175749</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>23.58947781248649</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>64.93504318084486</v>
+        <v>95.18262560497963</v>
       </c>
       <c r="K20" t="n">
-        <v>71.65684806925877</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>635.4656348230629</v>
+        <v>635.4656348230631</v>
       </c>
       <c r="M20" t="n">
-        <v>620.8908046610804</v>
+        <v>40.60386344278584</v>
       </c>
       <c r="N20" t="n">
-        <v>618.5185494941006</v>
+        <v>38.23160827580585</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>60.93615564373138</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.38908613778638</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>51.03001891140114</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>35.90465645211716</v>
+        <v>35.90465645211712</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>17.86445186236111</v>
       </c>
       <c r="M21" t="n">
-        <v>588.4248590693323</v>
+        <v>588.4248590693325</v>
       </c>
       <c r="N21" t="n">
-        <v>575.3745415187286</v>
+        <v>237.9601931522668</v>
       </c>
       <c r="O21" t="n">
-        <v>593.8630827600522</v>
+        <v>593.8630827600523</v>
       </c>
       <c r="P21" t="n">
-        <v>23.58947781248654</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.54417117587987</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9641,25 +9641,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>55.17869360476841</v>
+        <v>55.17869360476834</v>
       </c>
       <c r="M23" t="n">
-        <v>40.60386344278592</v>
+        <v>620.8908046610806</v>
       </c>
       <c r="N23" t="n">
-        <v>451.3346315058945</v>
+        <v>618.5185494941006</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>44.8564981304762</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>131.5081347871078</v>
       </c>
       <c r="R23" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>51.03001891140111</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>35.90465645211712</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>469.3643933413533</v>
+        <v>412.5174787181055</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>579.1800241303899</v>
       </c>
       <c r="O24" t="n">
-        <v>13.57614154175755</v>
+        <v>13.57614154175749</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9878,7 +9878,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>639.7961588228487</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9890,13 +9890,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>491.6748249469099</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,19 +9954,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>35.90465645211712</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>97.18746932231409</v>
       </c>
       <c r="M27" t="n">
-        <v>8.137917851037784</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>474.8026170320728</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>252.0353837925826</v>
       </c>
       <c r="K29" t="n">
-        <v>495.3356838104133</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10133,7 +10133,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>101.093438926603</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>51.03001891140113</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>35.90465645211714</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>283.3884799221693</v>
+        <v>13.57614154175751</v>
       </c>
       <c r="P30" t="n">
-        <v>23.58947781248652</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>48.54417117587986</v>
+        <v>70.58506275927758</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10361,13 +10361,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>582.2929468940298</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>319.4560495535981</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>51.03001891140114</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>35.90465645211716</v>
+        <v>35.90465645211712</v>
       </c>
       <c r="L33" t="n">
-        <v>247.4742005238676</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>245.1764300989179</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>23.58947781248654</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>48.54417117587987</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,10 +10586,10 @@
         <v>64.93504318084483</v>
       </c>
       <c r="K35" t="n">
-        <v>64.00762850929152</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>365.6305272430814</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10598,13 +10598,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>44.85649813047621</v>
       </c>
       <c r="P35" t="n">
-        <v>362.3747470458766</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>77.38908613778634</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>495.9804281565747</v>
+        <v>17.86445186236112</v>
       </c>
       <c r="M36" t="n">
-        <v>703.4346662860942</v>
+        <v>8.137917851037741</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>694.1898313471515</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>23.58947781248651</v>
+        <v>223.63597350256</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.54417117587985</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.93504318084483</v>
+        <v>64.93504318084486</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>64.00762850929156</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>258.0979577054026</v>
       </c>
       <c r="M38" t="n">
-        <v>40.60386344278587</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>420.9969555561383</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
@@ -10844,7 +10844,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>101.093438926603</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>51.03001891140112</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>35.90465645211713</v>
+        <v>35.90465645211716</v>
       </c>
       <c r="L39" t="n">
-        <v>265.9246987058566</v>
+        <v>17.86445186236116</v>
       </c>
       <c r="M39" t="n">
-        <v>703.4346662860942</v>
+        <v>703.4346662860945</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>575.6006918896737</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>23.58947781248654</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>64.93504318084486</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>64.00762850929156</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>513.3444330723155</v>
+        <v>55.17869360476841</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11072,16 +11072,16 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>156.4526552811987</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>77.38908613778638</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>51.03001891140114</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>342.1639109063219</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>17.86445186236116</v>
       </c>
       <c r="M42" t="n">
-        <v>620.9041557692727</v>
+        <v>703.4346662860938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>694.1898313471514</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>64.93504318084486</v>
+        <v>64.93504318084487</v>
       </c>
       <c r="K44" t="n">
-        <v>64.00762850929156</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>40.60386344278594</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11312,13 +11312,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>363.7989231211258</v>
+        <v>327.5304814585178</v>
       </c>
       <c r="Q44" t="n">
-        <v>77.38908613778638</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>101.0934389266031</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>51.03001891140114</v>
       </c>
       <c r="K45" t="n">
-        <v>35.90465645211716</v>
+        <v>35.90465645211717</v>
       </c>
       <c r="L45" t="n">
-        <v>324.1237063165652</v>
+        <v>172.5839438886461</v>
       </c>
       <c r="M45" t="n">
-        <v>703.4346662860941</v>
+        <v>703.4346662860938</v>
       </c>
       <c r="N45" t="n">
-        <v>694.1898313471517</v>
+        <v>694.1898313471514</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>13.57614154175756</v>
       </c>
       <c r="P45" t="n">
-        <v>23.58947781248654</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.54417117587987</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.7141768217119</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.566165110695</v>
       </c>
       <c r="H11" t="n">
-        <v>112.8363568015779</v>
+        <v>204.6342819630085</v>
       </c>
       <c r="I11" t="n">
-        <v>3.151780517794812</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>143.3019734541765</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>228.8422283906077</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>257.4455318684863</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.7145662033647</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>229.3778133405924</v>
       </c>
     </row>
     <row r="12">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>271.7432046825899</v>
+        <v>271.74320468259</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.7141768217119</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.2578127575321</v>
+        <v>204.6342819630086</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.701686082616</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>143.3019734541765</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>228.8422283906077</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>257.4455318684863</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>256.2007737686993</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696326.2169310281</v>
+        <v>696326.2169310282</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696326.2169310281</v>
+        <v>696326.2169310279</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>763394.4912843169</v>
+        <v>763394.4912843168</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763394.4912843168</v>
+        <v>763394.4912843169</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779706.6459049807</v>
+        <v>779706.6459049806</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779706.6459049807</v>
+        <v>779706.6459049806</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779706.6459049807</v>
+        <v>779706.6459049805</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>665627.118864453</v>
+        <v>665627.1188644532</v>
       </c>
       <c r="C2" t="n">
         <v>665627.1188644527</v>
       </c>
       <c r="D2" t="n">
-        <v>665627.1188644528</v>
+        <v>665627.1188644529</v>
       </c>
       <c r="E2" t="n">
+        <v>592031.2967917335</v>
+      </c>
+      <c r="F2" t="n">
         <v>592031.2967917337</v>
       </c>
-      <c r="F2" t="n">
-        <v>592031.2967917329</v>
-      </c>
       <c r="G2" t="n">
-        <v>667229.0589454195</v>
+        <v>667229.0589454194</v>
       </c>
       <c r="H2" t="n">
-        <v>667229.058945419</v>
+        <v>667229.0589454197</v>
       </c>
       <c r="I2" t="n">
+        <v>667229.0589454192</v>
+      </c>
+      <c r="J2" t="n">
+        <v>667229.0589454202</v>
+      </c>
+      <c r="K2" t="n">
+        <v>667229.0589454201</v>
+      </c>
+      <c r="L2" t="n">
+        <v>667229.0589454202</v>
+      </c>
+      <c r="M2" t="n">
         <v>667229.05894542</v>
       </c>
-      <c r="J2" t="n">
-        <v>667229.05894542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>667229.0589454202</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>667229.0589454197</v>
+      </c>
+      <c r="O2" t="n">
         <v>667229.0589454201</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>667229.0589454197</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667229.0589454203</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667229.0589454196</v>
-      </c>
-      <c r="P2" t="n">
-        <v>667229.0589454196</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>385330.3363294511</v>
+        <v>385330.3363294512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60141.35647113661</v>
+        <v>60141.35647113668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102602.8832475096</v>
+        <v>102602.8832475095</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60141.35647113658</v>
+        <v>60141.35647113667</v>
       </c>
       <c r="M3" t="n">
         <v>135718.4370181547</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4964.991124646633</v>
+        <v>4964.991124646378</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391807.7382426218</v>
+        <v>391803.5146628196</v>
       </c>
       <c r="C4" t="n">
-        <v>391807.7382426218</v>
+        <v>391803.5146628196</v>
       </c>
       <c r="D4" t="n">
-        <v>391807.7382426218</v>
+        <v>391803.5146628196</v>
       </c>
       <c r="E4" t="n">
-        <v>268352.2280610465</v>
+        <v>268341.7177868709</v>
       </c>
       <c r="F4" t="n">
-        <v>268352.2280610464</v>
+        <v>268341.7177868708</v>
       </c>
       <c r="G4" t="n">
-        <v>314698.3291285969</v>
+        <v>314687.8188544213</v>
       </c>
       <c r="H4" t="n">
-        <v>314698.3291285969</v>
+        <v>314687.8188544214</v>
       </c>
       <c r="I4" t="n">
-        <v>314698.329128597</v>
+        <v>314687.8188544214</v>
       </c>
       <c r="J4" t="n">
-        <v>301606.0114966829</v>
+        <v>301592.1958654847</v>
       </c>
       <c r="K4" t="n">
-        <v>301606.0114966828</v>
+        <v>301592.1958654848</v>
       </c>
       <c r="L4" t="n">
-        <v>301606.0114966828</v>
+        <v>301592.1958654847</v>
       </c>
       <c r="M4" t="n">
-        <v>310602.3907795752</v>
+        <v>310590.8618069706</v>
       </c>
       <c r="N4" t="n">
-        <v>310602.3907795752</v>
+        <v>310590.8618069707</v>
       </c>
       <c r="O4" t="n">
-        <v>310602.3907795752</v>
+        <v>310590.8618069707</v>
       </c>
       <c r="P4" t="n">
-        <v>310602.3907795753</v>
+        <v>310590.8618069707</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47885.84847267173</v>
+        <v>47885.84847267177</v>
       </c>
       <c r="F5" t="n">
         <v>47885.84847267173</v>
@@ -26491,25 +26491,25 @@
         <v>54205.87809413671</v>
       </c>
       <c r="J5" t="n">
+        <v>68181.97873879057</v>
+      </c>
+      <c r="K5" t="n">
         <v>68181.97873879058</v>
       </c>
-      <c r="K5" t="n">
-        <v>68181.97873879057</v>
-      </c>
       <c r="L5" t="n">
-        <v>68181.97873879057</v>
+        <v>68181.97873879058</v>
       </c>
       <c r="M5" t="n">
-        <v>58312.12654204957</v>
+        <v>58312.12654204955</v>
       </c>
       <c r="N5" t="n">
-        <v>58312.12654204957</v>
+        <v>58312.12654204959</v>
       </c>
       <c r="O5" t="n">
-        <v>58312.12654204956</v>
+        <v>58312.12654204955</v>
       </c>
       <c r="P5" t="n">
-        <v>58312.12654204956</v>
+        <v>58312.12654204955</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240191.7806218312</v>
+        <v>240191.6746338472</v>
       </c>
       <c r="C6" t="n">
-        <v>240191.7806218309</v>
+        <v>240191.6746338467</v>
       </c>
       <c r="D6" t="n">
-        <v>240191.780621831</v>
+        <v>240191.674633847</v>
       </c>
       <c r="E6" t="n">
-        <v>-109537.1160714355</v>
+        <v>-109729.8429922704</v>
       </c>
       <c r="F6" t="n">
-        <v>275793.2202580147</v>
+        <v>275600.4933371814</v>
       </c>
       <c r="G6" t="n">
-        <v>238183.4952515493</v>
+        <v>238194.0055257247</v>
       </c>
       <c r="H6" t="n">
-        <v>298324.8517226854</v>
+        <v>298335.3619968616</v>
       </c>
       <c r="I6" t="n">
-        <v>298324.8517226863</v>
+        <v>298335.3619968611</v>
       </c>
       <c r="J6" t="n">
-        <v>194838.1854624369</v>
+        <v>194852.0010936355</v>
       </c>
       <c r="K6" t="n">
-        <v>297441.0687099468</v>
+        <v>297454.8843411447</v>
       </c>
       <c r="L6" t="n">
-        <v>237299.7122388102</v>
+        <v>237313.5278700082</v>
       </c>
       <c r="M6" t="n">
-        <v>162596.1046056403</v>
+        <v>162607.633578245</v>
       </c>
       <c r="N6" t="n">
-        <v>298314.5416237956</v>
+        <v>298326.0705963994</v>
       </c>
       <c r="O6" t="n">
-        <v>293349.5504991482</v>
+        <v>293361.0794717534</v>
       </c>
       <c r="P6" t="n">
-        <v>298314.5416237948</v>
+        <v>298326.0705963995</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F2" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="G2" t="n">
         <v>185.0202084018298</v>
@@ -26710,16 +26710,16 @@
         <v>81.38293449472903</v>
       </c>
       <c r="K2" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="L2" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="M2" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="N2" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="O2" t="n">
         <v>150.6871268751523</v>
@@ -26744,34 +26744,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="F3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="G3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="H3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="I3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="J3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="K3" t="n">
         <v>154.5856957766499</v>
       </c>
       <c r="L3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="M3" t="n">
         <v>154.5856957766499</v>
       </c>
       <c r="N3" t="n">
-        <v>154.5856957766499</v>
+        <v>154.5856957766498</v>
       </c>
       <c r="O3" t="n">
         <v>154.5856957766498</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="F4" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182946</v>
       </c>
       <c r="G4" t="n">
         <v>580.2869412182947</v>
       </c>
       <c r="H4" t="n">
-        <v>580.2869412182946</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="I4" t="n">
-        <v>580.2869412182946</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="J4" t="n">
+        <v>953.457708072734</v>
+      </c>
+      <c r="K4" t="n">
         <v>953.4577080727342</v>
       </c>
-      <c r="K4" t="n">
-        <v>953.457708072734</v>
-      </c>
       <c r="L4" t="n">
-        <v>953.457708072734</v>
+        <v>953.4577080727342</v>
       </c>
       <c r="M4" t="n">
-        <v>695.2967484350564</v>
+        <v>695.2967484350562</v>
       </c>
       <c r="N4" t="n">
-        <v>695.2967484350564</v>
+        <v>695.2967484350568</v>
       </c>
       <c r="O4" t="n">
-        <v>695.2967484350563</v>
+        <v>695.2967484350561</v>
       </c>
       <c r="P4" t="n">
-        <v>695.2967484350563</v>
+        <v>695.2967484350561</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>75.17669558892077</v>
+        <v>75.17669558892085</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.206238905808263</v>
+        <v>6.206238905808178</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75.17669558892072</v>
+        <v>75.17669558892084</v>
       </c>
       <c r="M2" t="n">
-        <v>69.30419238042325</v>
+        <v>69.30419238042326</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.206238905808291</v>
+        <v>6.206238905808178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>154.5856957766498</v>
+        <v>154.5856957766499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-3.252100256164748e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>373.1707668544396</v>
+        <v>373.1707668544393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.1259815806171</v>
+        <v>322.1259815806172</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>75.17669558892077</v>
+        <v>75.17669558892085</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.206238905808263</v>
+        <v>6.206238905808178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="C11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="D11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="E11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="G11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="H11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="I11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="T11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="U11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="V11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="W11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="X11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
     </row>
     <row r="12">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="D13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="E13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="G13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="I13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="J13" t="n">
-        <v>10.36607835650324</v>
+        <v>76.60486969437792</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28278,10 +28278,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>109.8435128129091</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>66.23879133787369</v>
+        <v>109.843512812909</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="T13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="U13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="V13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="W13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="X13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="C14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="D14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="E14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="G14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="H14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="I14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="T14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="U14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="V14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="W14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="X14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
     </row>
     <row r="15">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="C16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="D16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="E16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="F16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="G16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="H16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="I16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="J16" t="n">
-        <v>109.8435128129091</v>
+        <v>10.36607835650323</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>66.23879133787473</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>109.843512812909</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.60486969437702</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="S16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="T16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="U16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="V16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="W16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="X16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.8435128129091</v>
+        <v>109.843512812909</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>185.0202084018298</v>
       </c>
       <c r="I17" t="n">
-        <v>112.9952933307039</v>
+        <v>112.9952933307038</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.6871268751523</v>
+        <v>150.6871268751522</v>
       </c>
       <c r="T17" t="n">
         <v>185.0202084018298</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.68669219864069</v>
+        <v>6.411569224402541</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>166.2927522708041</v>
@@ -28743,7 +28743,7 @@
         <v>123.3803748530772</v>
       </c>
       <c r="J19" t="n">
-        <v>10.36607835650324</v>
+        <v>10.36607835650323</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,19 +28767,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>110.12786715717</v>
+        <v>110.1278671571699</v>
       </c>
       <c r="S19" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>185.0202084018298</v>
       </c>
       <c r="U19" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>185.0202084018298</v>
@@ -28819,7 +28819,7 @@
         <v>185.0202084018298</v>
       </c>
       <c r="I20" t="n">
-        <v>112.9952933307039</v>
+        <v>112.9952933307038</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.6871268751523</v>
+        <v>150.6871268751522</v>
       </c>
       <c r="T20" t="n">
         <v>185.0202084018298</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.68669219864069</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.2927522708041</v>
       </c>
       <c r="H22" t="n">
-        <v>151.4453260122265</v>
+        <v>126.8399108541887</v>
       </c>
       <c r="I22" t="n">
         <v>123.3803748530772</v>
       </c>
       <c r="J22" t="n">
-        <v>10.36607835650324</v>
+        <v>10.36607835650323</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>110.12786715717</v>
+        <v>110.1278671571699</v>
       </c>
       <c r="S22" t="n">
         <v>185.0202084018298</v>
@@ -29013,7 +29013,7 @@
         <v>185.0202084018298</v>
       </c>
       <c r="U22" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>185.0202084018298</v>
@@ -29022,7 +29022,7 @@
         <v>185.0202084018298</v>
       </c>
       <c r="X22" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>185.0202084018298</v>
@@ -29056,7 +29056,7 @@
         <v>185.0202084018298</v>
       </c>
       <c r="I23" t="n">
-        <v>112.9952933307039</v>
+        <v>112.9952933307038</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>150.6871268751536</v>
+        <v>150.6871268751522</v>
       </c>
       <c r="T23" t="n">
         <v>185.0202084018298</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>116.5394363815725</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -29217,7 +29217,7 @@
         <v>123.3803748530772</v>
       </c>
       <c r="J25" t="n">
-        <v>10.36607835650324</v>
+        <v>10.36607835650323</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.12786715717</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0202084018298</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>185.0202084018298</v>
@@ -29256,13 +29256,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>185.0202084018298</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>185.0202084018298</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.075839121844439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="C29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="D29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="E29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="F29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="G29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="H29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="I29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="T29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="U29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="V29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="W29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="X29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="C31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="D31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="E31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="F31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="G31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="H31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="I31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="J31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="K31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="L31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="M31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="N31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="O31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="P31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="R31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="S31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="T31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="U31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="V31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="W31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="X31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.38293449472904</v>
+        <v>81.38293449472903</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="C32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="D32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="E32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="F32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="G32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="H32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="I32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="T32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="U32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="V32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="W32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="X32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="C34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="D34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="E34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="F34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="G34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="H34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="I34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="J34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="K34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="L34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="M34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="N34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="O34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="P34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="R34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="S34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="T34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="U34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="V34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="W34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="X34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.382934494729</v>
+        <v>81.38293449472901</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="C35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="D35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="E35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="F35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="G35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="H35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="I35" t="n">
         <v>112.9952933307038</v>
@@ -30037,22 +30037,22 @@
         <v>150.6871268751523</v>
       </c>
       <c r="T35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="U35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="V35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="W35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="X35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="Y35" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="C37" t="n">
-        <v>150.6871268751522</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="E37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="F37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="G37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="H37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="I37" t="n">
         <v>123.3803748530772</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1278671571699</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="U37" t="n">
-        <v>150.6871268751522</v>
+        <v>149.1357008249748</v>
       </c>
       <c r="V37" t="n">
-        <v>150.6871268751522</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>39.00783366780507</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="X37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="C38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="D38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="E38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="F38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="G38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="H38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="I38" t="n">
-        <v>112.9952933307038</v>
+        <v>112.9952933307039</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="T38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="U38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="V38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="W38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="X38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="Y38" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150.6871268751522</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="D40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="E40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="F40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="G40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="H40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="I40" t="n">
         <v>123.3803748530772</v>
       </c>
       <c r="J40" t="n">
-        <v>10.36607835650323</v>
+        <v>10.36607835650324</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1278671571699</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="T40" t="n">
-        <v>150.6871268751522</v>
+        <v>149.1357008249749</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="W40" t="n">
-        <v>39.00783366780507</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.6871268751522</v>
+        <v>150.6871268751523</v>
       </c>
     </row>
     <row r="41">
@@ -30624,16 +30624,16 @@
         <v>150.6871268751523</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="G43" t="n">
         <v>150.6871268751523</v>
       </c>
       <c r="H43" t="n">
-        <v>39.00783366780473</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="I43" t="n">
         <v>123.3803748530772</v>
@@ -30666,16 +30666,16 @@
         <v>110.12786715717</v>
       </c>
       <c r="S43" t="n">
-        <v>150.6871268751523</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>150.6871268751523</v>
       </c>
       <c r="U43" t="n">
-        <v>150.6871268751523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>150.6871268751523</v>
+        <v>39.0078336678049</v>
       </c>
       <c r="W43" t="n">
         <v>150.6871268751523</v>
@@ -30876,7 +30876,7 @@
         <v>123.3803748530772</v>
       </c>
       <c r="J46" t="n">
-        <v>10.36607835650324</v>
+        <v>10.36607835650325</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.12786715717</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>150.6871268751523</v>
       </c>
       <c r="U46" t="n">
-        <v>39.00783366780476</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>150.6871268751523</v>
       </c>
       <c r="W46" t="n">
-        <v>150.6871268751523</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>150.6871268751523</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.6871268751523</v>
+        <v>149.1357008249749</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H11" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I11" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J11" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K11" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L11" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M11" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N11" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O11" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P11" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R11" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S11" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T11" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H12" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I12" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J12" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K12" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L12" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M12" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N12" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O12" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P12" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R12" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S12" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T12" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H13" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I13" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J13" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K13" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L13" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M13" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N13" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O13" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P13" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R13" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S13" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T13" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H14" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I14" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J14" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K14" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L14" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M14" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N14" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O14" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P14" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R14" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S14" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T14" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H15" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I15" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J15" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K15" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L15" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M15" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N15" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O15" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P15" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R15" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S15" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T15" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H16" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I16" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J16" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K16" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L16" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M16" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N16" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O16" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P16" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R16" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S16" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T16" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H17" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I17" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J17" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K17" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L17" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M17" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N17" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O17" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P17" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R17" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S17" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T17" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H18" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I18" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J18" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K18" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L18" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M18" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N18" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O18" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P18" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R18" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S18" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T18" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H19" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I19" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J19" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K19" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L19" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M19" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N19" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O19" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P19" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R19" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S19" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T19" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H20" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I20" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J20" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K20" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L20" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M20" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N20" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O20" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P20" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R20" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S20" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T20" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H21" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I21" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J21" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K21" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L21" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M21" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N21" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O21" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P21" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R21" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S21" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T21" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H22" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I22" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J22" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K22" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L22" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M22" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N22" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O22" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P22" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R22" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S22" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T22" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H23" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I23" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K23" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L23" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M23" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N23" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O23" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P23" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R23" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S23" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T23" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H24" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I24" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J24" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K24" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L24" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M24" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N24" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O24" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P24" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R24" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S24" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T24" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H25" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I25" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J25" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K25" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L25" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M25" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N25" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O25" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P25" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R25" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S25" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T25" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H26" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I26" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J26" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K26" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L26" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M26" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N26" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O26" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P26" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R26" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S26" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T26" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H27" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I27" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J27" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K27" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L27" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M27" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N27" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O27" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P27" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R27" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S27" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T27" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H28" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I28" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J28" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K28" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L28" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M28" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N28" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O28" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P28" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R28" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S28" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T28" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6214500332729638</v>
+        <v>0.6214500332729639</v>
       </c>
       <c r="H29" t="n">
-        <v>6.364425153256742</v>
+        <v>6.364425153256743</v>
       </c>
       <c r="I29" t="n">
         <v>23.95845240775596</v>
       </c>
       <c r="J29" t="n">
-        <v>52.74479476150126</v>
+        <v>52.74479476150127</v>
       </c>
       <c r="K29" t="n">
-        <v>79.05077466994582</v>
+        <v>79.05077466994584</v>
       </c>
       <c r="L29" t="n">
-        <v>98.06947612572331</v>
+        <v>98.06947612572333</v>
       </c>
       <c r="M29" t="n">
         <v>109.1211881549414</v>
@@ -33199,22 +33199,22 @@
         <v>104.7073392936202</v>
       </c>
       <c r="P29" t="n">
-        <v>89.36529159719385</v>
+        <v>89.36529159719386</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.10961228060582</v>
+        <v>67.10961228060583</v>
       </c>
       <c r="R29" t="n">
-        <v>39.03716065258285</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S29" t="n">
         <v>14.16129263320768</v>
       </c>
       <c r="T29" t="n">
-        <v>2.7203975206524</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04971600266183709</v>
+        <v>0.0497160026618371</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>0.3325050814818507</v>
       </c>
       <c r="H30" t="n">
-        <v>3.211299076416821</v>
+        <v>3.211299076416822</v>
       </c>
       <c r="I30" t="n">
         <v>11.4480916211953</v>
@@ -33263,31 +33263,31 @@
         <v>31.41443842193222</v>
       </c>
       <c r="K30" t="n">
-        <v>53.69227888121621</v>
+        <v>53.69227888121622</v>
       </c>
       <c r="L30" t="n">
-        <v>72.19589499455709</v>
+        <v>72.19589499455711</v>
       </c>
       <c r="M30" t="n">
-        <v>84.24920419827416</v>
+        <v>84.24920419827417</v>
       </c>
       <c r="N30" t="n">
-        <v>86.47902994207132</v>
+        <v>86.47902994207134</v>
       </c>
       <c r="O30" t="n">
-        <v>79.11141734713136</v>
+        <v>79.11141734713138</v>
       </c>
       <c r="P30" t="n">
-        <v>63.49388700682813</v>
+        <v>63.49388700682815</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.44398198003413</v>
+        <v>42.44398198003414</v>
       </c>
       <c r="R30" t="n">
         <v>20.64448216428544</v>
       </c>
       <c r="S30" t="n">
-        <v>6.176136052963318</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T30" t="n">
         <v>1.340228815271143</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2787610907447784</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H31" t="n">
-        <v>2.478439515894486</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I31" t="n">
-        <v>8.383106256215703</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J31" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K31" t="n">
         <v>32.38697036107516</v>
@@ -33348,16 +33348,16 @@
         <v>41.44417161854643</v>
       </c>
       <c r="M31" t="n">
-        <v>43.69706807011103</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N31" t="n">
-        <v>42.65804945915325</v>
+        <v>42.65804945915326</v>
       </c>
       <c r="O31" t="n">
         <v>39.40161308090742</v>
       </c>
       <c r="P31" t="n">
-        <v>33.71488682971391</v>
+        <v>33.71488682971392</v>
       </c>
       <c r="Q31" t="n">
         <v>23.34244006227413</v>
@@ -33366,7 +33366,7 @@
         <v>12.53411231657885</v>
       </c>
       <c r="S31" t="n">
-        <v>4.858045554161273</v>
+        <v>4.858045554161274</v>
       </c>
       <c r="T31" t="n">
         <v>1.191070115000417</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.621450033272964</v>
       </c>
       <c r="H32" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256744</v>
       </c>
       <c r="I32" t="n">
-        <v>23.95845240775595</v>
+        <v>23.95845240775597</v>
       </c>
       <c r="J32" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150128</v>
       </c>
       <c r="K32" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994585</v>
       </c>
       <c r="L32" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572336</v>
       </c>
       <c r="M32" t="n">
-        <v>109.1211881549413</v>
+        <v>109.1211881549414</v>
       </c>
       <c r="N32" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O32" t="n">
-        <v>104.7073392936201</v>
+        <v>104.7073392936202</v>
       </c>
       <c r="P32" t="n">
-        <v>89.36529159719382</v>
+        <v>89.36529159719389</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060584</v>
       </c>
       <c r="R32" t="n">
-        <v>39.03716065258283</v>
+        <v>39.03716065258286</v>
       </c>
       <c r="S32" t="n">
-        <v>14.16129263320767</v>
+        <v>14.16129263320768</v>
       </c>
       <c r="T32" t="n">
-        <v>2.720397520652399</v>
+        <v>2.720397520652401</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04971600266183707</v>
+        <v>0.04971600266183711</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3325050814818505</v>
+        <v>0.3325050814818508</v>
       </c>
       <c r="H33" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416823</v>
       </c>
       <c r="I33" t="n">
-        <v>11.44809162119529</v>
+        <v>11.4480916211953</v>
       </c>
       <c r="J33" t="n">
-        <v>31.41443842193221</v>
+        <v>31.41443842193223</v>
       </c>
       <c r="K33" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121623</v>
       </c>
       <c r="L33" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455712</v>
       </c>
       <c r="M33" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827419</v>
       </c>
       <c r="N33" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207135</v>
       </c>
       <c r="O33" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713139</v>
       </c>
       <c r="P33" t="n">
-        <v>63.49388700682811</v>
+        <v>63.49388700682816</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003415</v>
       </c>
       <c r="R33" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428545</v>
       </c>
       <c r="S33" t="n">
-        <v>6.176136052963316</v>
+        <v>6.17613605296332</v>
       </c>
       <c r="T33" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271144</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02187533430801649</v>
+        <v>0.02187533430801651</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447785</v>
       </c>
       <c r="H34" t="n">
-        <v>2.478439515894485</v>
+        <v>2.478439515894487</v>
       </c>
       <c r="I34" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215704</v>
       </c>
       <c r="J34" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565584</v>
       </c>
       <c r="K34" t="n">
-        <v>32.38697036107514</v>
+        <v>32.38697036107517</v>
       </c>
       <c r="L34" t="n">
-        <v>41.44417161854641</v>
+        <v>41.44417161854644</v>
       </c>
       <c r="M34" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011104</v>
       </c>
       <c r="N34" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915327</v>
       </c>
       <c r="O34" t="n">
-        <v>39.4016130809074</v>
+        <v>39.40161308090743</v>
       </c>
       <c r="P34" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971393</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227414</v>
       </c>
       <c r="R34" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657886</v>
       </c>
       <c r="S34" t="n">
-        <v>4.858045554161271</v>
+        <v>4.858045554161275</v>
       </c>
       <c r="T34" t="n">
-        <v>1.191070115000416</v>
+        <v>1.191070115000417</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01520515040426065</v>
+        <v>0.01520515040426066</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6214500332729639</v>
+        <v>0.6214500332729636</v>
       </c>
       <c r="H38" t="n">
-        <v>6.364425153256743</v>
+        <v>6.36442515325674</v>
       </c>
       <c r="I38" t="n">
-        <v>23.95845240775596</v>
+        <v>23.95845240775595</v>
       </c>
       <c r="J38" t="n">
-        <v>52.74479476150127</v>
+        <v>52.74479476150124</v>
       </c>
       <c r="K38" t="n">
-        <v>79.05077466994584</v>
+        <v>79.0507746699458</v>
       </c>
       <c r="L38" t="n">
-        <v>98.06947612572333</v>
+        <v>98.06947612572328</v>
       </c>
       <c r="M38" t="n">
-        <v>109.1211881549414</v>
+        <v>109.1211881549413</v>
       </c>
       <c r="N38" t="n">
         <v>110.8868830619782</v>
       </c>
       <c r="O38" t="n">
-        <v>104.7073392936202</v>
+        <v>104.7073392936201</v>
       </c>
       <c r="P38" t="n">
-        <v>89.36529159719386</v>
+        <v>89.36529159719382</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.10961228060583</v>
+        <v>67.10961228060579</v>
       </c>
       <c r="R38" t="n">
-        <v>39.03716065258286</v>
+        <v>39.03716065258283</v>
       </c>
       <c r="S38" t="n">
-        <v>14.16129263320768</v>
+        <v>14.16129263320767</v>
       </c>
       <c r="T38" t="n">
-        <v>2.720397520652401</v>
+        <v>2.720397520652399</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0497160026618371</v>
+        <v>0.04971600266183707</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3325050814818507</v>
+        <v>0.3325050814818505</v>
       </c>
       <c r="H39" t="n">
-        <v>3.211299076416822</v>
+        <v>3.21129907641682</v>
       </c>
       <c r="I39" t="n">
-        <v>11.4480916211953</v>
+        <v>11.44809162119529</v>
       </c>
       <c r="J39" t="n">
-        <v>31.41443842193222</v>
+        <v>31.41443842193221</v>
       </c>
       <c r="K39" t="n">
-        <v>53.69227888121622</v>
+        <v>53.69227888121619</v>
       </c>
       <c r="L39" t="n">
-        <v>72.19589499455711</v>
+        <v>72.19589499455707</v>
       </c>
       <c r="M39" t="n">
-        <v>84.24920419827417</v>
+        <v>84.24920419827413</v>
       </c>
       <c r="N39" t="n">
-        <v>86.47902994207134</v>
+        <v>86.47902994207129</v>
       </c>
       <c r="O39" t="n">
-        <v>79.11141734713138</v>
+        <v>79.11141734713134</v>
       </c>
       <c r="P39" t="n">
-        <v>63.49388700682815</v>
+        <v>63.49388700682811</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.44398198003414</v>
+        <v>42.44398198003412</v>
       </c>
       <c r="R39" t="n">
-        <v>20.64448216428544</v>
+        <v>20.64448216428543</v>
       </c>
       <c r="S39" t="n">
-        <v>6.17613605296332</v>
+        <v>6.176136052963316</v>
       </c>
       <c r="T39" t="n">
         <v>1.340228815271143</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0218753343080165</v>
+        <v>0.02187533430801649</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2787610907447785</v>
+        <v>0.2787610907447783</v>
       </c>
       <c r="H40" t="n">
-        <v>2.478439515894487</v>
+        <v>2.478439515894485</v>
       </c>
       <c r="I40" t="n">
-        <v>8.383106256215704</v>
+        <v>8.383106256215699</v>
       </c>
       <c r="J40" t="n">
-        <v>19.70840911565584</v>
+        <v>19.70840911565583</v>
       </c>
       <c r="K40" t="n">
-        <v>32.38697036107516</v>
+        <v>32.38697036107514</v>
       </c>
       <c r="L40" t="n">
-        <v>41.44417161854643</v>
+        <v>41.44417161854641</v>
       </c>
       <c r="M40" t="n">
-        <v>43.69706807011104</v>
+        <v>43.69706807011102</v>
       </c>
       <c r="N40" t="n">
-        <v>42.65804945915326</v>
+        <v>42.65804945915324</v>
       </c>
       <c r="O40" t="n">
-        <v>39.40161308090742</v>
+        <v>39.4016130809074</v>
       </c>
       <c r="P40" t="n">
-        <v>33.71488682971392</v>
+        <v>33.7148868297139</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.34244006227413</v>
+        <v>23.34244006227412</v>
       </c>
       <c r="R40" t="n">
         <v>12.53411231657885</v>
       </c>
       <c r="S40" t="n">
-        <v>4.858045554161274</v>
+        <v>4.858045554161271</v>
       </c>
       <c r="T40" t="n">
-        <v>1.191070115000417</v>
+        <v>1.191070115000416</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01520515040426066</v>
+        <v>0.01520515040426065</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6214500332729636</v>
+        <v>0.6214500332729634</v>
       </c>
       <c r="H44" t="n">
-        <v>6.36442515325674</v>
+        <v>6.364425153256739</v>
       </c>
       <c r="I44" t="n">
         <v>23.95845240775595</v>
       </c>
       <c r="J44" t="n">
-        <v>52.74479476150124</v>
+        <v>52.74479476150123</v>
       </c>
       <c r="K44" t="n">
-        <v>79.0507746699458</v>
+        <v>79.05077466994578</v>
       </c>
       <c r="L44" t="n">
-        <v>98.06947612572328</v>
+        <v>98.06947612572326</v>
       </c>
       <c r="M44" t="n">
         <v>109.1211881549413</v>
       </c>
       <c r="N44" t="n">
-        <v>110.8868830619782</v>
+        <v>110.8868830619781</v>
       </c>
       <c r="O44" t="n">
         <v>104.7073392936201</v>
       </c>
       <c r="P44" t="n">
-        <v>89.36529159719382</v>
+        <v>89.3652915971938</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.10961228060579</v>
+        <v>67.10961228060577</v>
       </c>
       <c r="R44" t="n">
         <v>39.03716065258283</v>
@@ -34439,43 +34439,43 @@
         <v>0.3325050814818505</v>
       </c>
       <c r="H45" t="n">
-        <v>3.21129907641682</v>
+        <v>3.211299076416819</v>
       </c>
       <c r="I45" t="n">
         <v>11.44809162119529</v>
       </c>
       <c r="J45" t="n">
-        <v>31.41443842193221</v>
+        <v>31.4144384219322</v>
       </c>
       <c r="K45" t="n">
-        <v>53.69227888121619</v>
+        <v>53.69227888121618</v>
       </c>
       <c r="L45" t="n">
-        <v>72.19589499455707</v>
+        <v>72.19589499455705</v>
       </c>
       <c r="M45" t="n">
-        <v>84.24920419827413</v>
+        <v>84.24920419827411</v>
       </c>
       <c r="N45" t="n">
-        <v>86.47902994207129</v>
+        <v>86.47902994207128</v>
       </c>
       <c r="O45" t="n">
-        <v>79.11141734713134</v>
+        <v>79.11141734713132</v>
       </c>
       <c r="P45" t="n">
-        <v>63.49388700682811</v>
+        <v>63.4938870068281</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.44398198003412</v>
+        <v>42.44398198003411</v>
       </c>
       <c r="R45" t="n">
-        <v>20.64448216428543</v>
+        <v>20.64448216428542</v>
       </c>
       <c r="S45" t="n">
-        <v>6.176136052963316</v>
+        <v>6.176136052963315</v>
       </c>
       <c r="T45" t="n">
-        <v>1.340228815271143</v>
+        <v>1.340228815271142</v>
       </c>
       <c r="U45" t="n">
         <v>0.02187533430801649</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2787610907447783</v>
+        <v>0.2787610907447782</v>
       </c>
       <c r="H46" t="n">
         <v>2.478439515894485</v>
       </c>
       <c r="I46" t="n">
-        <v>8.383106256215699</v>
+        <v>8.383106256215697</v>
       </c>
       <c r="J46" t="n">
-        <v>19.70840911565583</v>
+        <v>19.70840911565582</v>
       </c>
       <c r="K46" t="n">
         <v>32.38697036107514</v>
       </c>
       <c r="L46" t="n">
-        <v>41.44417161854641</v>
+        <v>41.4441716185464</v>
       </c>
       <c r="M46" t="n">
-        <v>43.69706807011102</v>
+        <v>43.69706807011101</v>
       </c>
       <c r="N46" t="n">
-        <v>42.65804945915324</v>
+        <v>42.65804945915323</v>
       </c>
       <c r="O46" t="n">
         <v>39.4016130809074</v>
       </c>
       <c r="P46" t="n">
-        <v>33.7148868297139</v>
+        <v>33.71488682971389</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.34244006227412</v>
+        <v>23.34244006227411</v>
       </c>
       <c r="R46" t="n">
-        <v>12.53411231657885</v>
+        <v>12.53411231657884</v>
       </c>
       <c r="S46" t="n">
-        <v>4.858045554161271</v>
+        <v>4.85804555416127</v>
       </c>
       <c r="T46" t="n">
         <v>1.191070115000416</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>198.8556764875902</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K11" t="n">
-        <v>441.6592151017254</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>273.0511210382717</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="O11" t="n">
         <v>549.1917846394065</v>
@@ -35428,10 +35428,10 @@
         <v>441.0698291037816</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.63838130345943</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>145.6719962196366</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>376.6611132875055</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>560.6464868110351</v>
+        <v>560.6464868110352</v>
       </c>
       <c r="M12" t="n">
-        <v>580.2869412182947</v>
+        <v>103.2690173408189</v>
       </c>
       <c r="N12" t="n">
-        <v>1.106917087904634</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="O12" t="n">
-        <v>354.1519755378367</v>
+        <v>580.2869412182953</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>473.2124412658155</v>
       </c>
       <c r="Q12" t="n">
-        <v>279.1763976920447</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>66.23879133787469</v>
       </c>
       <c r="K13" t="n">
         <v>115.0486280478851</v>
@@ -35574,10 +35574,10 @@
         <v>207.2296664405664</v>
       </c>
       <c r="M13" t="n">
-        <v>341.713892335812</v>
+        <v>231.870379522903</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9368751719857</v>
+        <v>337.541596647021</v>
       </c>
       <c r="O13" t="n">
         <v>203.7498626179863</v>
@@ -35586,7 +35586,7 @@
         <v>154.8019229676721</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.7992040724266</v>
+        <v>26.79920407242662</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L14" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182946</v>
       </c>
       <c r="M14" t="n">
-        <v>580.2869412182947</v>
+        <v>580.2869412182946</v>
       </c>
       <c r="N14" t="n">
-        <v>580.2869412182947</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>549.1917846394065</v>
+        <v>241.3665784614378</v>
       </c>
       <c r="P14" t="n">
-        <v>7.64921955996711</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>376.6611132875055</v>
       </c>
       <c r="L15" t="n">
-        <v>441.5860210830563</v>
+        <v>560.6464868110352</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.106917087904634</v>
+        <v>580.2869412182946</v>
       </c>
       <c r="O15" t="n">
-        <v>580.2869412182947</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>473.2124412658154</v>
+        <v>355.2588926257406</v>
       </c>
       <c r="Q15" t="n">
-        <v>279.1763976920447</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>99.4774344564058</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>115.0486280478851</v>
+        <v>181.2874193857599</v>
       </c>
       <c r="L16" t="n">
         <v>207.2296664405664</v>
@@ -35814,16 +35814,16 @@
         <v>231.870379522903</v>
       </c>
       <c r="N16" t="n">
-        <v>227.698083834112</v>
+        <v>227.6980838341121</v>
       </c>
       <c r="O16" t="n">
         <v>203.7498626179863</v>
       </c>
       <c r="P16" t="n">
-        <v>154.8019229676721</v>
+        <v>264.6454357805811</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.4040737668036</v>
+        <v>26.79920407242662</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K17" t="n">
-        <v>441.6592151017254</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>580.2869412182947</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>580.2869412182947</v>
+        <v>526.2840343319912</v>
       </c>
       <c r="O17" t="n">
         <v>549.1917846394065</v>
       </c>
       <c r="P17" t="n">
-        <v>146.2769456765364</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>376.6611132875055</v>
       </c>
       <c r="L18" t="n">
-        <v>560.6464868110351</v>
+        <v>335.6184382184813</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="N18" t="n">
-        <v>1.106917087904634</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="O18" t="n">
-        <v>461.226475490316</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>473.2124412658154</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>279.1763976920447</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>231.870379522903</v>
       </c>
       <c r="N19" t="n">
-        <v>227.698083834112</v>
+        <v>227.6980838341121</v>
       </c>
       <c r="O19" t="n">
         <v>203.7498626179863</v>
@@ -36060,7 +36060,7 @@
         <v>154.8019229676721</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.7992040724266</v>
+        <v>26.79920407242662</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>30.24758242413482</v>
       </c>
       <c r="K20" t="n">
-        <v>7.649219559967203</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L20" t="n">
-        <v>580.2869412182946</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="M20" t="n">
-        <v>580.2869412182946</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>580.2869412182946</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>549.1917846394065</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>441.0698291037816</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>145.6719962196366</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>560.6464868110351</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>580.2869412182946</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="N21" t="n">
-        <v>576.4814586066333</v>
+        <v>239.0671102401715</v>
       </c>
       <c r="O21" t="n">
-        <v>580.2869412182946</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>473.2124412658155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>231.870379522903</v>
       </c>
       <c r="N22" t="n">
-        <v>227.698083834112</v>
+        <v>227.6980838341121</v>
       </c>
       <c r="O22" t="n">
         <v>203.7498626179863</v>
@@ -36297,7 +36297,7 @@
         <v>154.8019229676721</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.7992040724266</v>
+        <v>26.79920407242662</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>198.8556764875902</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K23" t="n">
-        <v>441.6592151017254</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="N23" t="n">
-        <v>413.1030232300885</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="O23" t="n">
-        <v>549.1917846394065</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>441.0698291037816</v>
       </c>
       <c r="Q23" t="n">
-        <v>253.8222992916649</v>
+        <v>54.11904864932152</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>145.6719962196366</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>376.6611132875055</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>560.6464868110351</v>
+        <v>560.6464868110352</v>
       </c>
       <c r="M24" t="n">
-        <v>461.2264754903155</v>
+        <v>404.3795608670677</v>
       </c>
       <c r="N24" t="n">
-        <v>1.106917087904634</v>
+        <v>580.2869412182947</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>473.2124412658154</v>
+        <v>473.2124412658155</v>
       </c>
       <c r="Q24" t="n">
-        <v>279.1763976920447</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>231.870379522903</v>
       </c>
       <c r="N25" t="n">
-        <v>227.698083834112</v>
+        <v>227.6980838341121</v>
       </c>
       <c r="O25" t="n">
         <v>203.7498626179863</v>
@@ -36534,7 +36534,7 @@
         <v>154.8019229676721</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.7992040724266</v>
+        <v>26.79920407242662</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>198.8556764875902</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K26" t="n">
-        <v>441.6592151017254</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L26" t="n">
-        <v>596.3728010939343</v>
+        <v>584.6174652180804</v>
       </c>
       <c r="M26" t="n">
         <v>660.6372488060329</v>
@@ -36610,13 +36610,13 @@
         <v>549.1917846394065</v>
       </c>
       <c r="P26" t="n">
-        <v>430.7386693031786</v>
+        <v>441.0698291037816</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.8222992916649</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>145.6719962196366</v>
       </c>
       <c r="K27" t="n">
-        <v>376.6611132875055</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>560.6464868110351</v>
+        <v>79.32301745995298</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>718.3619815989623</v>
       </c>
       <c r="N27" t="n">
-        <v>1.106917087904634</v>
+        <v>1.106917087904691</v>
       </c>
       <c r="O27" t="n">
-        <v>461.2264754903153</v>
+        <v>600.8490765299405</v>
       </c>
       <c r="P27" t="n">
-        <v>473.2124412658154</v>
+        <v>473.2124412658155</v>
       </c>
       <c r="Q27" t="n">
-        <v>279.1763976920447</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>71.01685613822579</v>
       </c>
       <c r="K28" t="n">
-        <v>196.4315625426141</v>
+        <v>196.4315625426142</v>
       </c>
       <c r="L28" t="n">
-        <v>288.6126009352954</v>
+        <v>288.6126009352955</v>
       </c>
       <c r="M28" t="n">
         <v>313.253314017632</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>198.8556764875902</v>
+        <v>187.1003406117377</v>
       </c>
       <c r="K29" t="n">
-        <v>431.3280553011218</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L29" t="n">
         <v>596.3728010939343</v>
@@ -36850,10 +36850,10 @@
         <v>441.0698291037816</v>
       </c>
       <c r="Q29" t="n">
-        <v>253.8222992916649</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.424176075249576</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>145.6719962196366</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>376.6611132875055</v>
       </c>
       <c r="L30" t="n">
         <v>560.6464868110352</v>
@@ -36920,16 +36920,16 @@
         <v>718.3619815989622</v>
       </c>
       <c r="N30" t="n">
-        <v>748.8810210638482</v>
+        <v>1.106917087904677</v>
       </c>
       <c r="O30" t="n">
-        <v>269.8123383804117</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>473.2124412658154</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.04089158339772</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.0168561382258</v>
+        <v>71.01685613822579</v>
       </c>
       <c r="K31" t="n">
         <v>196.4315625426142</v>
       </c>
       <c r="L31" t="n">
-        <v>288.6126009352955</v>
+        <v>288.6126009352954</v>
       </c>
       <c r="M31" t="n">
         <v>313.253314017632</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>198.8556764875902</v>
+        <v>198.8556764875903</v>
       </c>
       <c r="K32" t="n">
-        <v>441.6592151017254</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L32" t="n">
         <v>596.3728010939343</v>
@@ -37081,16 +37081,16 @@
         <v>644.0295938068894</v>
       </c>
       <c r="O32" t="n">
-        <v>549.1917846394065</v>
+        <v>537.4364487635536</v>
       </c>
       <c r="P32" t="n">
         <v>441.0698291037816</v>
       </c>
       <c r="Q32" t="n">
-        <v>242.0669634158118</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R32" t="n">
-        <v>1.424176075249555</v>
+        <v>1.424176075249584</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>145.6719962196366</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6097486615064</v>
+        <v>560.6464868110352</v>
       </c>
       <c r="M33" t="n">
-        <v>718.3619815989622</v>
+        <v>237.0385122478802</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8810210638482</v>
+        <v>1.106917087904691</v>
       </c>
       <c r="O33" t="n">
         <v>600.8490765299405</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>473.2124412658155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.01685613822576</v>
+        <v>71.01685613822579</v>
       </c>
       <c r="K34" t="n">
-        <v>196.4315625426141</v>
+        <v>196.4315625426142</v>
       </c>
       <c r="L34" t="n">
-        <v>288.6126009352954</v>
+        <v>288.6126009352955</v>
       </c>
       <c r="M34" t="n">
         <v>313.253314017632</v>
       </c>
       <c r="N34" t="n">
-        <v>309.081018328841</v>
+        <v>309.0810183288411</v>
       </c>
       <c r="O34" t="n">
         <v>285.1327971127153</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>441.6592151017255</v>
       </c>
       <c r="L35" t="n">
-        <v>596.3728010939343</v>
+        <v>310.451833638313</v>
       </c>
       <c r="M35" t="n">
         <v>660.6372488060329</v>
@@ -37318,13 +37318,13 @@
         <v>644.0295938068894</v>
       </c>
       <c r="O35" t="n">
-        <v>549.1917846394065</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>301.4385914021452</v>
+        <v>441.0698291037816</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>253.822299291665</v>
       </c>
       <c r="R35" t="n">
         <v>1.424176075249576</v>
@@ -37388,22 +37388,22 @@
         <v>376.6611132875055</v>
       </c>
       <c r="L36" t="n">
-        <v>478.1159762942135</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>695.2967484350564</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.106917087904677</v>
+        <v>695.2967484350562</v>
       </c>
       <c r="O36" t="n">
         <v>600.8490765299405</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.0464956900735</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>279.1763976920448</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>441.6592151017255</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>596.3728010939343</v>
+        <v>202.9192641006342</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>660.6372488060329</v>
       </c>
       <c r="N38" t="n">
         <v>644.0295938068894</v>
       </c>
       <c r="O38" t="n">
-        <v>376.1404574256621</v>
+        <v>549.1917846394065</v>
       </c>
       <c r="P38" t="n">
         <v>441.0698291037816</v>
       </c>
       <c r="Q38" t="n">
-        <v>253.822299291665</v>
+        <v>253.8222992916649</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.424176075249555</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>145.6719962196366</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>248.0602468434955</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>695.2967484350564</v>
+        <v>695.2967484350568</v>
       </c>
       <c r="N39" t="n">
-        <v>1.106917087904677</v>
+        <v>576.7076089775784</v>
       </c>
       <c r="O39" t="n">
         <v>600.8490765299405</v>
       </c>
       <c r="P39" t="n">
-        <v>473.2124412658154</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>279.1763976920448</v>
+        <v>279.1763976920447</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>231.870379522903</v>
       </c>
       <c r="N40" t="n">
-        <v>227.6980838341121</v>
+        <v>227.698083834112</v>
       </c>
       <c r="O40" t="n">
         <v>203.7498626179863</v>
@@ -37719,7 +37719,7 @@
         <v>154.8019229676721</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.79920407242662</v>
+        <v>26.7992040724266</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>198.8556764875902</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>441.6592151017254</v>
       </c>
       <c r="L41" t="n">
-        <v>458.1657394675471</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>660.6372488060329</v>
@@ -37792,16 +37792,16 @@
         <v>644.0295938068894</v>
       </c>
       <c r="O41" t="n">
-        <v>549.1917846394065</v>
+        <v>111.5961571507224</v>
       </c>
       <c r="P41" t="n">
         <v>441.0698291037816</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>253.8222992916649</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.424176075249555</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>145.6719962196366</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>376.6611132875055</v>
+        <v>306.2592544542048</v>
       </c>
       <c r="L42" t="n">
-        <v>560.6464868110351</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>612.766237918235</v>
+        <v>695.2967484350561</v>
       </c>
       <c r="N42" t="n">
-        <v>1.106917087904634</v>
+        <v>695.2967484350561</v>
       </c>
       <c r="O42" t="n">
         <v>600.8490765299405</v>
@@ -38017,28 +38017,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>441.6592151017254</v>
       </c>
       <c r="L44" t="n">
-        <v>596.3728010939343</v>
+        <v>596.3728010939342</v>
       </c>
       <c r="M44" t="n">
-        <v>660.6372488060329</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>644.0295938068894</v>
+        <v>644.0295938068892</v>
       </c>
       <c r="O44" t="n">
-        <v>549.1917846394065</v>
+        <v>549.1917846394064</v>
       </c>
       <c r="P44" t="n">
-        <v>302.8627674773944</v>
+        <v>266.5943258147864</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>253.8222992916649</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.424176075249548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>306.259254454204</v>
+        <v>154.7194920262849</v>
       </c>
       <c r="M45" t="n">
-        <v>695.2967484350563</v>
+        <v>695.2967484350561</v>
       </c>
       <c r="N45" t="n">
-        <v>695.2967484350563</v>
+        <v>695.2967484350561</v>
       </c>
       <c r="O45" t="n">
-        <v>600.8490765299405</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>473.2124412658154</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>279.1763976920447</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
